--- a/tests/regression_data_linux/performance_analysis_moustapha_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_moustapha_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023365932070154</v>
+        <v>2.023365948992303</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999996417</v>
+        <v>2.300000046760486</v>
       </c>
       <c r="D2" t="n">
-        <v>2.698749320095411</v>
+        <v>2.698749321561573</v>
       </c>
       <c r="E2" t="n">
-        <v>89.45650424899357</v>
+        <v>89.45650689834378</v>
       </c>
       <c r="F2" t="n">
-        <v>76.74201856083859</v>
+        <v>76.74201970037416</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421303659794869</v>
+        <v>0.1421303786477831</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.88414892681807</v>
+        <v>-75.88415007902194</v>
       </c>
       <c r="I2" t="n">
-        <v>130144.2391045339</v>
+        <v>130144.2411077385</v>
       </c>
       <c r="J2" t="n">
-        <v>79.99031290997782</v>
+        <v>79.99031414120373</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.88251896256817</v>
+        <v>-23.88252284614876</v>
       </c>
       <c r="M2" t="n">
-        <v>133.651250686628</v>
+        <v>133.6512566428978</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>373560.5230229331</v>
+        <v>373560.5223068605</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7105513113466367</v>
+        <v>0.7105513115396489</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078590353504842</v>
+        <v>2.078590347054651</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000056375</v>
+        <v>2.399999999769279</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701005596946368</v>
+        <v>2.701005590476612</v>
       </c>
       <c r="E3" t="n">
-        <v>89.42866541147221</v>
+        <v>89.42866553834669</v>
       </c>
       <c r="F3" t="n">
-        <v>75.90048156263774</v>
+        <v>75.90048138227439</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512734623354787</v>
+        <v>0.151273465556427</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05175502497322</v>
+        <v>-75.05175484783082</v>
       </c>
       <c r="I3" t="n">
-        <v>134617.2627915922</v>
+        <v>134617.2621492488</v>
       </c>
       <c r="J3" t="n">
-        <v>82.7395591835232</v>
+        <v>82.73955878872086</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41972771660842</v>
+        <v>-26.4197292797034</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9489164262498</v>
+        <v>140.9489179268076</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>371944.7480669089</v>
+        <v>371944.7481853436</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983018876875339</v>
+        <v>0.6983018868512078</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.34035761447417</v>
+        <v>79.34035848223591</v>
       </c>
       <c r="D2" t="n">
-        <v>79.34035761447417</v>
+        <v>79.34035848223591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34035761447417</v>
+        <v>79.34035848223591</v>
       </c>
       <c r="H2" t="n">
-        <v>79.34035761447417</v>
+        <v>79.34035848223591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4617683020903</v>
+        <v>292.461768233438</v>
       </c>
       <c r="L2" t="n">
-        <v>132946.0768854143</v>
+        <v>132946.0767763297</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584411363945553</v>
+        <v>1.584411363018202</v>
       </c>
       <c r="N2" t="n">
-        <v>334728.1718945453</v>
+        <v>334728.1718454337</v>
       </c>
       <c r="O2" t="n">
-        <v>418636.9849153933</v>
+        <v>418636.9848465447</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687721.7119389353</v>
+        <v>-687721.7117480781</v>
       </c>
       <c r="R2" t="n">
-        <v>717.717860273065</v>
+        <v>717.717860269953</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.65340701817</v>
+        <v>1006.65340701456</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575388935111</v>
+        <v>1.402575388936162</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987285256755</v>
+        <v>0.9994987285251954</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9723774455909</v>
+        <v>342.9723774052991</v>
       </c>
       <c r="W2" t="n">
-        <v>186374.3906402176</v>
+        <v>186374.3904873433</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365544035126737e-06</v>
+        <v>5.365544039527845e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132880.1233149544</v>
+        <v>132880.1232058593</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525580011916345e-06</v>
+        <v>7.525580018094875e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432178763244736</v>
+        <v>0.003432178764049104</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.81767580867776e-05</v>
+        <v>1.817675808341898e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0258325441681273</v>
+        <v>0.02583254416295382</v>
       </c>
       <c r="AD2" t="n">
-        <v>132946.0768854143</v>
+        <v>132946.0767763297</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584411363945553</v>
+        <v>1.584411363018202</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584411363945553</v>
+        <v>1.584411363018202</v>
       </c>
       <c r="AG2" t="n">
-        <v>334728.1718945453</v>
+        <v>334728.1718454337</v>
       </c>
       <c r="AH2" t="n">
-        <v>418636.9849153933</v>
+        <v>418636.9848465447</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.717860273065</v>
+        <v>717.717860269953</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.65340701817</v>
+        <v>1006.65340701456</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9723774455909</v>
+        <v>342.9723774052991</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987285256755</v>
+        <v>0.9994987285251954</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.81767580867776e-05</v>
+        <v>1.817675808341898e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0258325441681273</v>
+        <v>0.02583254416295382</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2313316256119218</v>
+        <v>0.2313316281692196</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2313316256119218</v>
+        <v>0.2313316281692196</v>
       </c>
       <c r="DH2" t="n">
-        <v>180918.6817801576</v>
+        <v>180918.6836864403</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.698749320115394</v>
+        <v>2.698749348052598</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>260.8833473045578</v>
+        <v>260.8833406879884</v>
       </c>
       <c r="DU2" t="n">
-        <v>107.6895029619323</v>
+        <v>107.6895009717198</v>
       </c>
       <c r="DV2" t="n">
-        <v>237.6196369255759</v>
+        <v>237.6196305631902</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.6199095977467</v>
+        <v>65.6199094190672</v>
       </c>
       <c r="DX2" t="n">
-        <v>260.8833473045578</v>
+        <v>260.8833406879884</v>
       </c>
       <c r="DY2" t="n">
-        <v>107.6895029619323</v>
+        <v>107.6895009717198</v>
       </c>
       <c r="DZ2" t="n">
-        <v>237.6196369255759</v>
+        <v>237.6196305631902</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.6199095977467</v>
+        <v>65.6199094190672</v>
       </c>
       <c r="EB2" t="n">
-        <v>261.6409623484638</v>
+        <v>261.6409640718451</v>
       </c>
       <c r="EC2" t="n">
-        <v>87611.9693610698</v>
+        <v>87611.97154009761</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.167316783585186</v>
+        <v>1.16731680492141</v>
       </c>
       <c r="EE2" t="n">
-        <v>312700.2203054886</v>
+        <v>312700.2215365833</v>
       </c>
       <c r="EF2" t="n">
-        <v>387754.3706381744</v>
+        <v>387754.3723641267</v>
       </c>
       <c r="EG2" t="n">
-        <v>3790.970718522411</v>
+        <v>3790.970717984476</v>
       </c>
       <c r="EH2" t="n">
-        <v>-604118.8563908765</v>
+        <v>-604118.8610574664</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5914381500528</v>
+        <v>716.5914381986423</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.259824330014</v>
+        <v>1005.259824393504</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402835382634748</v>
+        <v>1.402835382628228</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993387893177845</v>
+        <v>0.9993387893243046</v>
       </c>
       <c r="EM2" t="n">
-        <v>324.3752182209363</v>
+        <v>324.3752192906172</v>
       </c>
       <c r="EN2" t="n">
-        <v>122824.2340640368</v>
+        <v>122824.2371190853</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.141715742176995e-06</v>
+        <v>8.141715539665365e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>87554.2744248105</v>
+        <v>87554.27660298438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.142148691848022e-05</v>
+        <v>1.142148663433665e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003835327297132606</v>
+        <v>0.003835327271943758</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.663475966908531e-05</v>
+        <v>1.663475975727141e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02346872920814976</v>
+        <v>0.02346872934266536</v>
       </c>
       <c r="EU2" t="n">
-        <v>87611.9693610698</v>
+        <v>87611.97154009761</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.167316783585186</v>
+        <v>1.16731680492141</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.167316783585186</v>
+        <v>1.16731680492141</v>
       </c>
       <c r="EX2" t="n">
-        <v>312700.2203054886</v>
+        <v>312700.2215365833</v>
       </c>
       <c r="EY2" t="n">
-        <v>387754.3706381744</v>
+        <v>387754.3723641267</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3790.970718522411</v>
+        <v>3790.970717984476</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5914381500528</v>
+        <v>716.5914381986423</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.259824330014</v>
+        <v>1005.259824393504</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.3752182209363</v>
+        <v>324.3752192906172</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993387893177845</v>
+        <v>0.9993387893243046</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.663475966908531e-05</v>
+        <v>1.663475975727141e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02346872920814976</v>
+        <v>0.02346872934266536</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5911436440859</v>
+        <v>295.5911436446614</v>
       </c>
       <c r="FJ2" t="n">
-        <v>134180.3381358196</v>
+        <v>134180.3383840545</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.7856698517</v>
+        <v>336974.7856697579</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN2" t="n">
-        <v>3790.970718520497</v>
+        <v>3790.970717989701</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698792.939120126</v>
+        <v>-698792.9389654092</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8532872838124</v>
+        <v>717.8532872844589</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.758869098953</v>
+        <v>1006.758869103029</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402457698436252</v>
+        <v>1.402457698440667</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995340644354249</v>
+        <v>0.9995340644345797</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001391117697</v>
+        <v>344.8001391123598</v>
       </c>
       <c r="FU2" t="n">
-        <v>188095.5405546675</v>
+        <v>188095.5409030828</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.316447147290891e-06</v>
+        <v>5.316447137443068e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>134118.5126399142</v>
+        <v>134118.512887924</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.456092230047561e-06</v>
+        <v>7.456092216259877e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395546720601536</v>
+        <v>0.003395546720617916</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832897112378754e-05</v>
+        <v>1.832897112385125e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606674897544746</v>
+        <v>0.02606674897556995</v>
       </c>
       <c r="GB2" t="n">
-        <v>134180.3381358196</v>
+        <v>134180.3383840545</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.7856698517</v>
+        <v>336974.7856697579</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG2" t="n">
-        <v>3790.970718520497</v>
+        <v>3790.970717989701</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8532872838124</v>
+        <v>717.8532872844589</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.758869098953</v>
+        <v>1006.758869103029</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8001391117697</v>
+        <v>344.8001391123598</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995340644354249</v>
+        <v>0.9995340644345797</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832897112378754e-05</v>
+        <v>1.832897112385125e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606674897544746</v>
+        <v>0.02606674897556995</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5911436440859</v>
+        <v>295.5911436446614</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134180.3381358196</v>
+        <v>134180.3383840545</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.7856698517</v>
+        <v>336974.7856697579</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU2" t="n">
-        <v>3790.970718520497</v>
+        <v>3790.970717989701</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698792.939120126</v>
+        <v>-698792.9389654092</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8532872838124</v>
+        <v>717.8532872844589</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758869098953</v>
+        <v>1006.758869103029</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402457698436252</v>
+        <v>1.402457698440667</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995340644354249</v>
+        <v>0.9995340644345797</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8001391117697</v>
+        <v>344.8001391123598</v>
       </c>
       <c r="HB2" t="n">
-        <v>188095.5405546675</v>
+        <v>188095.5409030828</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.316447147290891e-06</v>
+        <v>5.316447137443068e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>134118.5126399142</v>
+        <v>134118.512887924</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.456092230047561e-06</v>
+        <v>7.456092216259877e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395546720601536</v>
+        <v>0.003395546720617916</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832897112378754e-05</v>
+        <v>1.832897112385125e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606674897544746</v>
+        <v>0.02606674897556995</v>
       </c>
       <c r="HI2" t="n">
-        <v>134180.3381358196</v>
+        <v>134180.3383840545</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582135351153976</v>
+        <v>1.582135354079199</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.7856698517</v>
+        <v>336974.7856697579</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN2" t="n">
-        <v>3790.970718520497</v>
+        <v>3790.970717989701</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8532872838124</v>
+        <v>717.8532872844589</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.758869098953</v>
+        <v>1006.758869103029</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8001391117697</v>
+        <v>344.8001391123598</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995340644354249</v>
+        <v>0.9995340644345797</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832897112378754e-05</v>
+        <v>1.832897112385125e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606674897544746</v>
+        <v>0.02606674897556995</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8042641134405856</v>
+        <v>0.8042640903905038</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8042641134405856</v>
+        <v>0.8042640903905038</v>
       </c>
       <c r="HY2" t="n">
-        <v>478912.6369473738</v>
+        <v>478912.6310158086</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.698749320105373</v>
+        <v>2.698749319557473</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01760218516143717</v>
+        <v>0.01760218494988149</v>
       </c>
       <c r="IC2" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.049140414519574</v>
+        <v>0.04914041445321804</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.08202266822025431</v>
+        <v>0.08202266794234266</v>
       </c>
       <c r="IH2" t="n">
-        <v>6.703776422867236e-12</v>
+        <v>-1.699076837557989e-09</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>260.8833473045578</v>
+        <v>260.8833406879884</v>
       </c>
       <c r="IL2" t="n">
-        <v>107.6895029619323</v>
+        <v>107.6895009717198</v>
       </c>
       <c r="IM2" t="n">
-        <v>237.6196369255759</v>
+        <v>237.6196305631902</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.6199095977467</v>
+        <v>65.6199094190672</v>
       </c>
       <c r="IO2" t="n">
-        <v>129.7177555225144</v>
+        <v>129.7177503233029</v>
       </c>
       <c r="IP2" t="n">
-        <v>107.6895029619323</v>
+        <v>107.6895009717198</v>
       </c>
       <c r="IQ2" t="n">
-        <v>72.31643692557591</v>
+        <v>72.31643056319021</v>
       </c>
       <c r="IR2" t="n">
-        <v>33.88243707172811</v>
+        <v>33.88243522878751</v>
       </c>
       <c r="IS2" t="n">
-        <v>261.6409623483704</v>
+        <v>261.6409640720512</v>
       </c>
       <c r="IT2" t="n">
-        <v>87611.96936095996</v>
+        <v>87611.97154234487</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.16731678358414</v>
+        <v>1.167316804950448</v>
       </c>
       <c r="IV2" t="n">
-        <v>312700.2203054218</v>
+        <v>312700.2215367256</v>
       </c>
       <c r="IW2" t="n">
-        <v>387754.3706380808</v>
+        <v>387754.3723643271</v>
       </c>
       <c r="IX2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717977885</v>
       </c>
       <c r="IY2" t="n">
-        <v>-604118.8563906164</v>
+        <v>-604118.861056323</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5914381500502</v>
+        <v>716.5914381986549</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.259824330011</v>
+        <v>1005.259824393556</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402835382634749</v>
+        <v>1.402835382628274</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993387893177841</v>
+        <v>0.9993387893242904</v>
       </c>
       <c r="JD2" t="n">
-        <v>324.3752182208784</v>
+        <v>324.3752192907458</v>
       </c>
       <c r="JE2" t="n">
-        <v>122824.2340638828</v>
+        <v>122824.2371222381</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.141715742187202e-06</v>
+        <v>8.141715539456371e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>87554.27442470069</v>
+        <v>87554.27660522891</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.142148691849454e-05</v>
+        <v>1.142148663404385e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003835327297133973</v>
+        <v>0.003835327271941045</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.663475966908053e-05</v>
+        <v>1.663475975728226e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02346872920814247</v>
+        <v>0.02346872934268217</v>
       </c>
       <c r="JL2" t="n">
-        <v>87611.96936095996</v>
+        <v>87611.97154234487</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.16731678358414</v>
+        <v>1.167316804950448</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.16731678358414</v>
+        <v>1.167316804950448</v>
       </c>
       <c r="JO2" t="n">
-        <v>312700.2203054218</v>
+        <v>312700.2215367256</v>
       </c>
       <c r="JP2" t="n">
-        <v>387754.3706380808</v>
+        <v>387754.3723643271</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717977885</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5914381500502</v>
+        <v>716.5914381986549</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.259824330011</v>
+        <v>1005.259824393556</v>
       </c>
       <c r="JT2" t="n">
-        <v>324.3752182208784</v>
+        <v>324.3752192907458</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993387893177841</v>
+        <v>0.9993387893242904</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.663475966908053e-05</v>
+        <v>1.663475975728226e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02346872920814247</v>
+        <v>0.02346872934268217</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5911436440782</v>
+        <v>295.5911436445606</v>
       </c>
       <c r="KA2" t="n">
-        <v>134180.3381324807</v>
+        <v>134180.338383639</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354074839</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.785669853</v>
+        <v>336974.7856696864</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KE2" t="n">
-        <v>3790.970718527637</v>
+        <v>3790.970717990248</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698792.9391222069</v>
+        <v>-698792.9389652895</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8532872838035</v>
+        <v>717.8532872844534</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.758869098898</v>
+        <v>1006.758869103019</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402457698436193</v>
+        <v>1.402457698440664</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995340644354362</v>
+        <v>0.9995340644345798</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8001391117618</v>
+        <v>344.8001391123007</v>
       </c>
       <c r="KL2" t="n">
-        <v>188095.5405499812</v>
+        <v>188095.5409024999</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.316447147423347e-06</v>
+        <v>5.316447137459542e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>134118.5126365784</v>
+        <v>134118.5128875087</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.456092230233009e-06</v>
+        <v>7.456092216282965e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395546720601314</v>
+        <v>0.003395546720619048</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832897112378667e-05</v>
+        <v>1.83289711238463e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.0260667489754458</v>
+        <v>0.0260667489755623</v>
       </c>
       <c r="KS2" t="n">
-        <v>134180.3381324807</v>
+        <v>134180.338383639</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354074839</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354074839</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.785669853</v>
+        <v>336974.7856696864</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KX2" t="n">
-        <v>3790.970718527637</v>
+        <v>3790.970717990248</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8532872838035</v>
+        <v>717.8532872844534</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.758869098898</v>
+        <v>1006.758869103019</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8001391117618</v>
+        <v>344.8001391123007</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995340644354362</v>
+        <v>0.9995340644345798</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832897112378667e-05</v>
+        <v>1.83289711238463e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.0260667489754458</v>
+        <v>0.0260667489755623</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>270.0383893338853</v>
+        <v>270.0383903839945</v>
       </c>
       <c r="LH2" t="n">
-        <v>97831.94136318397</v>
+        <v>97831.94287467086</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.262899137318918</v>
+        <v>1.262899151914088</v>
       </c>
       <c r="LJ2" t="n">
-        <v>318701.5628618745</v>
+        <v>318701.563612025</v>
       </c>
       <c r="LK2" t="n">
-        <v>396167.7186871743</v>
+        <v>396167.7197388969</v>
       </c>
       <c r="LL2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717985023</v>
       </c>
       <c r="LM2" t="n">
-        <v>-627539.9081545398</v>
+        <v>-627539.9109386345</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8434232562544</v>
+        <v>716.843423290651</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.569873272824</v>
+        <v>1005.569873317645</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402774777098509</v>
+        <v>1.402774777093724</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993791075693906</v>
+        <v>0.9993791075736008</v>
       </c>
       <c r="LR2" t="n">
-        <v>329.5458192186438</v>
+        <v>329.5458198602424</v>
       </c>
       <c r="LS2" t="n">
-        <v>137151.4107838996</v>
+        <v>137151.4129029867</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.291211911597713e-06</v>
+        <v>7.291211798943294e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97771.51187989193</v>
+        <v>97771.51339086502</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.022792816406948e-05</v>
+        <v>1.022792800600581e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.00371628231735003</v>
+        <v>0.003716282302949653</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.706164671056574e-05</v>
+        <v>1.706164676364358e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02412067794794608</v>
+        <v>0.02412067802914137</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97831.94136318397</v>
+        <v>97831.94287467086</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.262899137318918</v>
+        <v>1.262899151914088</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.262899137318918</v>
+        <v>1.262899151914088</v>
       </c>
       <c r="MC2" t="n">
-        <v>318701.5628618745</v>
+        <v>318701.563612025</v>
       </c>
       <c r="MD2" t="n">
-        <v>396167.7186871743</v>
+        <v>396167.7197388969</v>
       </c>
       <c r="ME2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717985023</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8434232562544</v>
+        <v>716.843423290651</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.569873272824</v>
+        <v>1005.569873317645</v>
       </c>
       <c r="MH2" t="n">
-        <v>329.5458192186438</v>
+        <v>329.5458198602424</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993791075693906</v>
+        <v>0.9993791075736008</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.706164671056574e-05</v>
+        <v>1.706164676364358e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02412067794794608</v>
+        <v>0.02412067802914137</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8042641134407293</v>
+        <v>0.8042640903901849</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.3999003260297928</v>
+        <v>0.3999003086824385</v>
       </c>
       <c r="MP2" t="n">
-        <v>237217.1238536932</v>
+        <v>237217.1174299884</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.698749320102955</v>
+        <v>2.698749319624608</v>
       </c>
       <c r="MR2" t="n">
-        <v>382505.144721954</v>
+        <v>382505.1457736765</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>133.651250686628</v>
+        <v>133.6512566428978</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.2076994217701</v>
+        <v>122.2077012003775</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.11039652541999</v>
+        <v>-54.11040722028406</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.88251896256817</v>
+        <v>-23.88252284614876</v>
       </c>
       <c r="MX2" t="n">
-        <v>251.1514446269053</v>
+        <v>251.1514548357183</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.2076994217701</v>
+        <v>122.2077012003775</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-219.41359652542</v>
+        <v>-219.4136072202841</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.88332391905458</v>
+        <v>-60.88332475177528</v>
       </c>
       <c r="NB2" t="n">
-        <v>238.5383990457694</v>
+        <v>238.5383975357815</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999993534</v>
+        <v>59999.99877916191</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8768865193022206</v>
+        <v>0.8768865070164288</v>
       </c>
       <c r="NE2" t="n">
-        <v>296205.2894955754</v>
+        <v>296205.2884166478</v>
       </c>
       <c r="NF2" t="n">
-        <v>364629.1946180764</v>
+        <v>364629.1931056473</v>
       </c>
       <c r="NG2" t="n">
-        <v>3807.031910292122</v>
+        <v>3807.031909787964</v>
       </c>
       <c r="NH2" t="n">
-        <v>-543494.1023791633</v>
+        <v>-543494.0980227595</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.05490094967</v>
+        <v>716.0549009235149</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.486582228236</v>
+        <v>1004.486582194921</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.40280665755661</v>
+        <v>1.402806657561324</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992941076633592</v>
+        <v>0.9992941076580036</v>
       </c>
       <c r="NM2" t="n">
-        <v>309.7061258817673</v>
+        <v>309.706124900374</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.09979797163</v>
+        <v>84109.09808649652</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.18893199713465e-05</v>
+        <v>1.188932021327366e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59957.7278485916</v>
+        <v>59957.72662835375</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667841720962563e-05</v>
+        <v>1.667841754905871e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.00420524636599683</v>
+        <v>0.004205246392587198</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.543114346807591e-05</v>
+        <v>1.543114338803966e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02163960256578832</v>
+        <v>0.02163960244468569</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999993534</v>
+        <v>59999.99877916191</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8768865193022206</v>
+        <v>0.8768865070164288</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8768865193022206</v>
+        <v>0.8768865070164288</v>
       </c>
       <c r="NX2" t="n">
-        <v>296205.2894955754</v>
+        <v>296205.2884166478</v>
       </c>
       <c r="NY2" t="n">
-        <v>364629.1946180764</v>
+        <v>364629.1931056473</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3807.031910292122</v>
+        <v>3807.031909787964</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.05490094967</v>
+        <v>716.0549009235149</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.486582228236</v>
+        <v>1004.486582194921</v>
       </c>
       <c r="OC2" t="n">
-        <v>309.7061258817673</v>
+        <v>309.706124900374</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992941076633592</v>
+        <v>0.9992941076580036</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.543114346807591e-05</v>
+        <v>1.543114338803966e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02163960256578832</v>
+        <v>0.02163960244468569</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>247.4568372777317</v>
+        <v>247.456836563139</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68203.18451072781</v>
+        <v>68203.18394031968</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9608242375211303</v>
+        <v>0.9608242322634135</v>
       </c>
       <c r="OL2" t="n">
-        <v>302576.4846865481</v>
+        <v>302576.4841757098</v>
       </c>
       <c r="OM2" t="n">
-        <v>373560.5230229331</v>
+        <v>373560.5223068605</v>
       </c>
       <c r="ON2" t="n">
-        <v>3807.031910300757</v>
+        <v>3807.031909806096</v>
       </c>
       <c r="OO2" t="n">
-        <v>-568515.5529154936</v>
+        <v>-568515.5507886815</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2280498179064</v>
+        <v>716.2280498031906</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.716668692145</v>
+        <v>1004.716668675322</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402788775094168</v>
+        <v>1.402788775099501</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9993210026592318</v>
+        <v>0.9993210026557062</v>
       </c>
       <c r="OT2" t="n">
-        <v>315.4491588432499</v>
+        <v>315.449158387264</v>
       </c>
       <c r="OU2" t="n">
-        <v>95609.86331118629</v>
+        <v>95609.86251158988</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.045917194489913e-05</v>
+        <v>1.04591720323704e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68156.991992446</v>
+        <v>68156.99142218198</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.467200900108432e-05</v>
+        <v>1.467200912384383e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004053977935558324</v>
+        <v>0.004053977947264731</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.59006328922037e-05</v>
+        <v>1.590063285486774e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02235115815841308</v>
+        <v>0.02235115810175866</v>
       </c>
       <c r="PB2" t="n">
-        <v>68203.18451072781</v>
+        <v>68203.18394031968</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9608242375211303</v>
+        <v>0.9608242322634135</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9608242375211303</v>
+        <v>0.9608242322634135</v>
       </c>
       <c r="PE2" t="n">
-        <v>302576.4846865481</v>
+        <v>302576.4841757098</v>
       </c>
       <c r="PF2" t="n">
-        <v>373560.5230229331</v>
+        <v>373560.5223068605</v>
       </c>
       <c r="PG2" t="n">
-        <v>3807.031910300757</v>
+        <v>3807.031909806096</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2280498179064</v>
+        <v>716.2280498031906</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.716668692145</v>
+        <v>1004.716668675322</v>
       </c>
       <c r="PJ2" t="n">
-        <v>315.4491588432499</v>
+        <v>315.449158387264</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9993210026592318</v>
+        <v>0.9993210026557062</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.59006328922037e-05</v>
+        <v>1.590063285486774e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02235115815841308</v>
+        <v>0.02235115810175866</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>270.0235432287123</v>
+        <v>270.0235442788741</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92505.17075009171</v>
+        <v>92505.17216801237</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.194162260911561</v>
+        <v>1.194162274566586</v>
       </c>
       <c r="PS2" t="n">
-        <v>318703.2284932558</v>
+        <v>318703.2292435941</v>
       </c>
       <c r="PT2" t="n">
-        <v>396167.7186869737</v>
+        <v>396167.7197388968</v>
       </c>
       <c r="PU2" t="n">
-        <v>3807.031910299099</v>
+        <v>3807.031909797462</v>
       </c>
       <c r="PV2" t="n">
-        <v>-631820.5269167621</v>
+        <v>-631820.5297273843</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.8261010700588</v>
+        <v>716.8261011043302</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.461299401653</v>
+        <v>1005.461299445588</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402657210585283</v>
+        <v>1.402657210579513</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9994125649713648</v>
+        <v>0.9994125649754133</v>
       </c>
       <c r="QA2" t="n">
-        <v>329.5339267453425</v>
+        <v>329.5339273868147</v>
       </c>
       <c r="QB2" t="n">
-        <v>129677.1953338935</v>
+        <v>129677.1973215888</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.711456107800564e-06</v>
+        <v>7.711455989599178e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92451.09521789964</v>
+        <v>92451.09663537258</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.081652951371838e-05</v>
+        <v>1.081652934787786e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003715775531154746</v>
+        <v>0.003715775516750557</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.706009187828632e-05</v>
+        <v>1.706009193135543e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0241176589898235</v>
+        <v>0.02411765907099899</v>
       </c>
       <c r="QI2" t="n">
-        <v>92505.17075009171</v>
+        <v>92505.17216801237</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.194162260911561</v>
+        <v>1.194162274566586</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.194162260911561</v>
+        <v>1.194162274566586</v>
       </c>
       <c r="QL2" t="n">
-        <v>318703.2284932558</v>
+        <v>318703.2292435941</v>
       </c>
       <c r="QM2" t="n">
-        <v>396167.7186869737</v>
+        <v>396167.7197388968</v>
       </c>
       <c r="QN2" t="n">
-        <v>3807.031910299099</v>
+        <v>3807.031909797462</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.8261010700588</v>
+        <v>716.8261011043302</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.461299401653</v>
+        <v>1005.461299445588</v>
       </c>
       <c r="QQ2" t="n">
-        <v>329.5339267453425</v>
+        <v>329.5339273868147</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9994125649713648</v>
+        <v>0.9994125649754133</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.706009187828632e-05</v>
+        <v>1.706009193135543e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0241176589898235</v>
+        <v>0.02411765907099899</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4315421605113824</v>
+        <v>0.4315421811108534</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8109347011198104</v>
+        <v>0.8109347366523942</v>
       </c>
       <c r="QY2" t="n">
-        <v>371925.0040900119</v>
+        <v>371925.0159261563</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.698749320095411</v>
+        <v>2.698749321561573</v>
       </c>
       <c r="RA2" t="n">
-        <v>382505.144721954</v>
+        <v>382505.1457736765</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02695523145301046</v>
+        <v>0.0269552300933276</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.0006584125542579167</v>
+        <v>0.0006584122084729887</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01388415223805262</v>
+        <v>0.01388415228325335</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.08117664815310963</v>
+        <v>0.08117664440349774</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04120011738503176</v>
+        <v>0.04120011667696115</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1638745617834624</v>
+        <v>0.1638745556655128</v>
       </c>
       <c r="RH2" t="n">
-        <v>2.195851833697304e-11</v>
+        <v>-4.217449944832197e-09</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.41044537188485</v>
+        <v>79.41044516010687</v>
       </c>
       <c r="D3" t="n">
-        <v>79.41044537188485</v>
+        <v>79.41044516010687</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.41044537188485</v>
+        <v>79.41044516010687</v>
       </c>
       <c r="H3" t="n">
-        <v>79.41044537188485</v>
+        <v>79.41044516010687</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4562209313817</v>
+        <v>292.4562209480511</v>
       </c>
       <c r="L3" t="n">
-        <v>132937.2626270188</v>
+        <v>132937.2626535041</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584336431205659</v>
+        <v>1.584336431430821</v>
       </c>
       <c r="N3" t="n">
-        <v>334724.2034767881</v>
+        <v>334724.2034887129</v>
       </c>
       <c r="O3" t="n">
-        <v>418631.4216715091</v>
+        <v>418631.4216882262</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687706.289937932</v>
+        <v>-687706.2899842742</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7176088222149</v>
+        <v>717.7176088229704</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653115305736</v>
+        <v>1006.653115306613</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575473879858</v>
+        <v>1.402575473879602</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986897353856</v>
+        <v>0.9994986897355022</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9691216948974</v>
+        <v>342.9691217046807</v>
       </c>
       <c r="W3" t="n">
-        <v>186362.0380716677</v>
+        <v>186362.0381087851</v>
       </c>
       <c r="X3" t="n">
-        <v>5.365899677569731e-06</v>
+        <v>5.365899676501015e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132871.3082057153</v>
+        <v>132871.3082322032</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526079283059143e-06</v>
+        <v>7.526079281558815e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432243760464167</v>
+        <v>0.00343224376026885</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817648669667919e-05</v>
+        <v>1.817648669749471e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583212612936987</v>
+        <v>0.02583212613062605</v>
       </c>
       <c r="AD3" t="n">
-        <v>132937.2626270188</v>
+        <v>132937.2626535041</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584336431205659</v>
+        <v>1.584336431430821</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584336431205659</v>
+        <v>1.584336431430821</v>
       </c>
       <c r="AG3" t="n">
-        <v>334724.2034767881</v>
+        <v>334724.2034887129</v>
       </c>
       <c r="AH3" t="n">
-        <v>418631.4216715091</v>
+        <v>418631.4216882262</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7176088222149</v>
+        <v>717.7176088229704</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653115305736</v>
+        <v>1006.653115306613</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9691216948974</v>
+        <v>342.9691217046807</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986897353856</v>
+        <v>0.9994986897355022</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817648669667919e-05</v>
+        <v>1.817648669749471e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583212612936987</v>
+        <v>0.02583212613062605</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2315381774879657</v>
+        <v>0.2315381768638769</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2315381774879657</v>
+        <v>0.2315381768638769</v>
       </c>
       <c r="DH3" t="n">
-        <v>181072.6415355725</v>
+        <v>181072.6410702834</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701005597049691</v>
+        <v>2.701005590230299</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>262.1360883640481</v>
+        <v>262.1360832411113</v>
       </c>
       <c r="DU3" t="n">
-        <v>108.1411336276095</v>
+        <v>108.1411318699108</v>
       </c>
       <c r="DV3" t="n">
-        <v>238.7903348976661</v>
+        <v>238.7903300698867</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.63562334214573</v>
+        <v>65.63562325679649</v>
       </c>
       <c r="DX3" t="n">
-        <v>262.1360883640481</v>
+        <v>262.1360832411114</v>
       </c>
       <c r="DY3" t="n">
-        <v>108.1411336276095</v>
+        <v>108.1411318699108</v>
       </c>
       <c r="DZ3" t="n">
-        <v>238.7903348976661</v>
+        <v>238.7903300698867</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.63562334214572</v>
+        <v>65.63562325679649</v>
       </c>
       <c r="EB3" t="n">
-        <v>261.3138767418125</v>
+        <v>261.3138780824027</v>
       </c>
       <c r="EC3" t="n">
-        <v>87209.7416181392</v>
+        <v>87209.74326494931</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.163413563346952</v>
+        <v>1.1634135793413</v>
       </c>
       <c r="EE3" t="n">
-        <v>312466.5424150165</v>
+        <v>312466.5433727605</v>
       </c>
       <c r="EF3" t="n">
-        <v>387426.7666771876</v>
+        <v>387426.7680198938</v>
       </c>
       <c r="EG3" t="n">
-        <v>3791.037829171737</v>
+        <v>3791.037828893174</v>
       </c>
       <c r="EH3" t="n">
-        <v>-603224.0253385439</v>
+        <v>-603224.0290052737</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5822797108906</v>
+        <v>716.582279748322</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.248035838645</v>
+        <v>1005.248035886872</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402836860889469</v>
+        <v>1.402836860883491</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993374759772042</v>
+        <v>0.999337475982562</v>
       </c>
       <c r="EM3" t="n">
-        <v>324.1721404237372</v>
+        <v>324.1721412563306</v>
       </c>
       <c r="EN3" t="n">
-        <v>122260.311987006</v>
+        <v>122260.3142958322</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.179269165502225e-06</v>
+        <v>8.179269011040725e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>87152.19523778898</v>
+        <v>87152.19688398698</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.147418028050316e-05</v>
+        <v>1.147418006376998e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003840115554387534</v>
+        <v>0.003840115534738062</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.661802009566153e-05</v>
+        <v>1.661802016428725e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02344319808061982</v>
+        <v>0.02344319818528198</v>
       </c>
       <c r="EU3" t="n">
-        <v>87209.7416181392</v>
+        <v>87209.74326494931</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.163413563346952</v>
+        <v>1.1634135793413</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.163413563346952</v>
+        <v>1.1634135793413</v>
       </c>
       <c r="EX3" t="n">
-        <v>312466.5424150165</v>
+        <v>312466.5433727605</v>
       </c>
       <c r="EY3" t="n">
-        <v>387426.7666771876</v>
+        <v>387426.7680198938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3791.037829171737</v>
+        <v>3791.037828893174</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5822797108906</v>
+        <v>716.582279748322</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.248035838645</v>
+        <v>1005.248035886872</v>
       </c>
       <c r="FC3" t="n">
-        <v>324.1721404237372</v>
+        <v>324.1721412563306</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993374759772042</v>
+        <v>0.999337475982562</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.661802009566153e-05</v>
+        <v>1.661802016428725e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02344319808061982</v>
+        <v>0.02344319818528198</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5910708745575</v>
+        <v>295.5910708748516</v>
       </c>
       <c r="FJ3" t="n">
-        <v>134148.9564927013</v>
+        <v>134148.9566195962</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499512</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.7974821574</v>
+        <v>336974.7974821096</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="FN3" t="n">
-        <v>3791.0378291698</v>
+        <v>3791.0378288984</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698812.5005616692</v>
+        <v>-698812.5004825608</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8532055401646</v>
+        <v>717.8532055404954</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.758353831279</v>
+        <v>1006.758353833363</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402457140347686</v>
+        <v>1.402457140349942</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995341712884683</v>
+        <v>0.9995341712880362</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000645105363</v>
+        <v>344.8000645108378</v>
       </c>
       <c r="FU3" t="n">
-        <v>188051.4942244721</v>
+        <v>188051.4944025779</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.317692391246444e-06</v>
+        <v>5.317692386209994e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>134087.159467741</v>
+        <v>134087.1595945207</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.457835664276135e-06</v>
+        <v>7.457835657224731e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395544649987623</v>
+        <v>0.003395544649995997</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832896306781762e-05</v>
+        <v>1.832896306785019e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606673348870658</v>
+        <v>0.02606673348876919</v>
       </c>
       <c r="GB3" t="n">
-        <v>134148.9564927013</v>
+        <v>134148.9566195962</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499512</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499512</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.7974821574</v>
+        <v>336974.7974821096</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GG3" t="n">
-        <v>3791.0378291698</v>
+        <v>3791.0378288984</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8532055401646</v>
+        <v>717.8532055404954</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.758353831279</v>
+        <v>1006.758353833363</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8000645105363</v>
+        <v>344.8000645108378</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995341712884683</v>
+        <v>0.9995341712880362</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832896306781762e-05</v>
+        <v>1.832896306785019e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606673348870658</v>
+        <v>0.02606673348876919</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5910708745575</v>
+        <v>295.5910708748517</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134148.9564927013</v>
+        <v>134148.9566195968</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499517</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.7974821574</v>
+        <v>336974.7974821098</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3791.0378291698</v>
+        <v>3791.0378288984</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698812.5005616692</v>
+        <v>-698812.5004825611</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8532055401646</v>
+        <v>717.8532055404952</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758353831279</v>
+        <v>1006.758353833363</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402457140347686</v>
+        <v>1.402457140349943</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995341712884683</v>
+        <v>0.9995341712880362</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8000645105363</v>
+        <v>344.8000645108379</v>
       </c>
       <c r="HB3" t="n">
-        <v>188051.4942244721</v>
+        <v>188051.4944025787</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.317692391246444e-06</v>
+        <v>5.317692386209974e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>134087.159467741</v>
+        <v>134087.1595945213</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.457835664276135e-06</v>
+        <v>7.4578356572247e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395544649987623</v>
+        <v>0.003395544649995996</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832896306781762e-05</v>
+        <v>1.832896306785019e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606673348870658</v>
+        <v>0.0260667334887692</v>
       </c>
       <c r="HI3" t="n">
-        <v>134148.9564927013</v>
+        <v>134148.9566195968</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499517</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.58176554700417</v>
+        <v>1.581765548499517</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.7974821574</v>
+        <v>336974.7974821098</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3791.0378291698</v>
+        <v>3791.0378288984</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8532055401646</v>
+        <v>717.8532055404952</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.758353831279</v>
+        <v>1006.758353833363</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8000645105363</v>
+        <v>344.8000645108379</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995341712884683</v>
+        <v>0.9995341712880362</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832896306781762e-05</v>
+        <v>1.832896306785019e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606673348870658</v>
+        <v>0.0260667334887692</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8086323766792559</v>
+        <v>0.808632358799253</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8086323766792559</v>
+        <v>0.8086323587992532</v>
       </c>
       <c r="HY3" t="n">
-        <v>480086.3929492886</v>
+        <v>480086.3881844962</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.701005596988122</v>
+        <v>2.701005590219475</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01761869855190326</v>
+        <v>0.01761869846286048</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.04914443528886805</v>
+        <v>0.04914443526763498</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08204320238001445</v>
+        <v>0.0820432022697386</v>
       </c>
       <c r="IH3" t="n">
-        <v>-1.091904344718841e-11</v>
+        <v>-9.479639295761899e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>262.136088364048</v>
+        <v>262.1360832411113</v>
       </c>
       <c r="IL3" t="n">
-        <v>108.1411336276094</v>
+        <v>108.1411318699108</v>
       </c>
       <c r="IM3" t="n">
-        <v>238.7903348976661</v>
+        <v>238.7903300698866</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.63562334214573</v>
+        <v>65.63562325679649</v>
       </c>
       <c r="IO3" t="n">
-        <v>130.7473279946181</v>
+        <v>130.7473238273498</v>
       </c>
       <c r="IP3" t="n">
-        <v>108.1411336276094</v>
+        <v>108.1411318699108</v>
       </c>
       <c r="IQ3" t="n">
-        <v>73.48713489766607</v>
+        <v>73.4871300698866</v>
       </c>
       <c r="IR3" t="n">
-        <v>34.19800525927327</v>
+        <v>34.19800394237041</v>
       </c>
       <c r="IS3" t="n">
-        <v>261.3138767417187</v>
+        <v>261.3138780824955</v>
       </c>
       <c r="IT3" t="n">
-        <v>87209.74161586014</v>
+        <v>87209.74326272191</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.163413563316947</v>
+        <v>1.163413579311151</v>
       </c>
       <c r="IV3" t="n">
-        <v>312466.542414955</v>
+        <v>312466.5433728325</v>
       </c>
       <c r="IW3" t="n">
-        <v>387426.7666771004</v>
+        <v>387426.7680199938</v>
       </c>
       <c r="IX3" t="n">
-        <v>3791.037829178901</v>
+        <v>3791.037828900884</v>
       </c>
       <c r="IY3" t="n">
-        <v>-603224.0253401478</v>
+        <v>-603224.0290075404</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5822797108808</v>
+        <v>716.5822797483162</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.248035838594</v>
+        <v>1005.248035886823</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402836860889417</v>
+        <v>1.402836860883435</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993374759772202</v>
+        <v>0.99933747598258</v>
       </c>
       <c r="JD3" t="n">
-        <v>324.1721404236782</v>
+        <v>324.1721412563875</v>
       </c>
       <c r="JE3" t="n">
-        <v>122260.3119838084</v>
+        <v>122260.3142927069</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.179269165716146e-06</v>
+        <v>8.179269011249814e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>87152.19523551282</v>
+        <v>87152.1968817626</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.147418028080284e-05</v>
+        <v>1.147418006406284e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003840115554388577</v>
+        <v>0.003840115534736344</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.66180200956564e-05</v>
+        <v>1.661802016429163e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02344319808061172</v>
+        <v>0.02344319818528836</v>
       </c>
       <c r="JL3" t="n">
-        <v>87209.74161586014</v>
+        <v>87209.74326272191</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.163413563316947</v>
+        <v>1.163413579311151</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.163413563316947</v>
+        <v>1.163413579311151</v>
       </c>
       <c r="JO3" t="n">
-        <v>312466.542414955</v>
+        <v>312466.5433728325</v>
       </c>
       <c r="JP3" t="n">
-        <v>387426.7666771004</v>
+        <v>387426.7680199938</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.037829178901</v>
+        <v>3791.037828900884</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5822797108808</v>
+        <v>716.5822797483162</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.248035838594</v>
+        <v>1005.248035886823</v>
       </c>
       <c r="JT3" t="n">
-        <v>324.1721404236782</v>
+        <v>324.1721412563875</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993374759772202</v>
+        <v>0.99933747598258</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.66180200956564e-05</v>
+        <v>1.661802016429163e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02344319808061172</v>
+        <v>0.02344319818528836</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5910708746496</v>
+        <v>295.5910708748509</v>
       </c>
       <c r="KA3" t="n">
-        <v>134148.9564895108</v>
+        <v>134148.9566193402</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.581765546966037</v>
+        <v>1.581765548496495</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.7974822304</v>
+        <v>336974.7974821097</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KE3" t="n">
-        <v>3791.037829176964</v>
+        <v>3791.037828898947</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698812.5005640358</v>
+        <v>-698812.5004827201</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8532055401607</v>
+        <v>717.8532055404946</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.758353831229</v>
+        <v>1006.758353833358</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402457140347624</v>
+        <v>1.402457140349938</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995341712884804</v>
+        <v>0.9995341712880371</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8000645105866</v>
+        <v>344.8000645108372</v>
       </c>
       <c r="KL3" t="n">
-        <v>188051.4942199936</v>
+        <v>188051.4944022185</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.317692391373088e-06</v>
+        <v>5.317692386220157e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>134087.1594645535</v>
+        <v>134087.1595942649</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.457835664453422e-06</v>
+        <v>7.457835657238961e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395544649986256</v>
+        <v>0.003395544649995981</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832896306782163e-05</v>
+        <v>1.832896306785012e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606673348871243</v>
+        <v>0.02606673348876906</v>
       </c>
       <c r="KS3" t="n">
-        <v>134148.9564895108</v>
+        <v>134148.9566193402</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581765546966037</v>
+        <v>1.581765548496495</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.581765546966037</v>
+        <v>1.581765548496495</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.7974822304</v>
+        <v>336974.7974821097</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KX3" t="n">
-        <v>3791.037829176964</v>
+        <v>3791.037828898947</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8532055401607</v>
+        <v>717.8532055404946</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.758353831229</v>
+        <v>1006.758353833358</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8000645105866</v>
+        <v>344.8000645108372</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995341712884804</v>
+        <v>0.9995341712880371</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832896306782163e-05</v>
+        <v>1.832896306785012e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606673348871243</v>
+        <v>0.02606673348876906</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>269.8451957731115</v>
+        <v>269.8451965698156</v>
       </c>
       <c r="LH3" t="n">
-        <v>97564.93558651418</v>
+        <v>97564.93668689116</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.260355152169896</v>
+        <v>1.260355162659196</v>
       </c>
       <c r="LJ3" t="n">
-        <v>318563.5295031193</v>
+        <v>318563.5300723478</v>
       </c>
       <c r="LK3" t="n">
-        <v>395974.1985661536</v>
+        <v>395974.1993642013</v>
       </c>
       <c r="LL3" t="n">
-        <v>3791.037829171739</v>
+        <v>3791.037828893722</v>
       </c>
       <c r="LM3" t="n">
-        <v>-627019.1466299659</v>
+        <v>-627019.1487772322</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8371394090785</v>
+        <v>716.837139434952</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.561857422374</v>
+        <v>1005.561857455395</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402775891677857</v>
+        <v>1.40277589167329</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993782664569778</v>
+        <v>0.9993782664604371</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.4277659288462</v>
+        <v>329.4277664157693</v>
       </c>
       <c r="LS3" t="n">
-        <v>136777.0847914204</v>
+        <v>136777.0863340841</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.311166205398808e-06</v>
+        <v>7.31116612293857e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>97504.58758442281</v>
+        <v>97504.58868446242</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.025592769298332e-05</v>
+        <v>1.02559275772767e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003718934962428249</v>
+        <v>0.003718934951481336</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.705188197986465e-05</v>
+        <v>1.705188202013886e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02410574222659391</v>
+        <v>0.02410574228819375</v>
       </c>
       <c r="LZ3" t="n">
-        <v>97564.93558651418</v>
+        <v>97564.93668689116</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.260355152169896</v>
+        <v>1.260355162659196</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.260355152169896</v>
+        <v>1.260355162659196</v>
       </c>
       <c r="MC3" t="n">
-        <v>318563.5295031193</v>
+        <v>318563.5300723478</v>
       </c>
       <c r="MD3" t="n">
-        <v>395974.1985661536</v>
+        <v>395974.1993642013</v>
       </c>
       <c r="ME3" t="n">
-        <v>3791.037829171739</v>
+        <v>3791.037828893722</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8371394090785</v>
+        <v>716.837139434952</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.561857422374</v>
+        <v>1005.561857455395</v>
       </c>
       <c r="MH3" t="n">
-        <v>329.4277659288462</v>
+        <v>329.4277664157693</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993782664569778</v>
+        <v>0.9993782664604371</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.705188197986465e-05</v>
+        <v>1.705188202013886e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02410574222659391</v>
+        <v>0.02410574228819375</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8086323766794028</v>
+        <v>0.8086323587991111</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4033268491972731</v>
+        <v>0.4033268353061276</v>
       </c>
       <c r="MP3" t="n">
-        <v>238540.4731570642</v>
+        <v>238540.4678482976</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.701005596918461</v>
+        <v>2.701005590149479</v>
       </c>
       <c r="MR3" t="n">
-        <v>382311.6246009337</v>
+        <v>382311.625398981</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>140.9489164262498</v>
+        <v>140.9489179268076</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.2280161274654</v>
+        <v>126.228015760384</v>
       </c>
       <c r="MV3" t="n">
-        <v>-62.71431245145143</v>
+        <v>-62.71431656276096</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.41972771660842</v>
+        <v>-26.4197292797034</v>
       </c>
       <c r="MX3" t="n">
-        <v>260.625206071906</v>
+        <v>260.6252094910481</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.2280161274654</v>
+        <v>126.228015760384</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-228.0175124514514</v>
+        <v>-228.017516562761</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.0315630806951</v>
+        <v>-61.03156358904722</v>
       </c>
       <c r="NB3" t="n">
-        <v>235.9233320794669</v>
+        <v>235.9233319870195</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999769164</v>
+        <v>57500.00000456999</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8496677678923592</v>
+        <v>0.8496677683280416</v>
       </c>
       <c r="NE3" t="n">
-        <v>294337.9397689107</v>
+        <v>294337.9397026353</v>
       </c>
       <c r="NF3" t="n">
-        <v>362011.4495459417</v>
+        <v>362011.4494530607</v>
       </c>
       <c r="NG3" t="n">
-        <v>3808.205261315904</v>
+        <v>3808.2052608879</v>
       </c>
       <c r="NH3" t="n">
-        <v>-536433.0249462634</v>
+        <v>-536433.0245861094</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0089809910758</v>
+        <v>716.0089809899366</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418518595194</v>
+        <v>1004.4185185955</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402801564311263</v>
+        <v>1.402801564313922</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992900832998295</v>
+        <v>0.9992900832985393</v>
       </c>
       <c r="NM3" t="n">
-        <v>308.0019963524193</v>
+        <v>308.0019962919678</v>
       </c>
       <c r="NN3" t="n">
-        <v>80603.92801829032</v>
+        <v>80603.92802798119</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240634327117512e-05</v>
+        <v>1.240634326968353e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57459.2515926261</v>
+        <v>57459.25159942539</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740363774818697e-05</v>
+        <v>1.740363774612756e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.00425171310518852</v>
+        <v>0.004251713106870708</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.529217508969993e-05</v>
+        <v>1.529217508479204e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02142935642990572</v>
+        <v>0.0214293564224992</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999769164</v>
+        <v>57500.00000456999</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8496677678923592</v>
+        <v>0.8496677683280416</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8496677678923592</v>
+        <v>0.8496677683280416</v>
       </c>
       <c r="NX3" t="n">
-        <v>294337.9397689107</v>
+        <v>294337.9397026353</v>
       </c>
       <c r="NY3" t="n">
-        <v>362011.4495459417</v>
+        <v>362011.4494530607</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3808.205261315904</v>
+        <v>3808.2052608879</v>
       </c>
       <c r="OA3" t="n">
-        <v>716.0089809910758</v>
+        <v>716.0089809899366</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.418518595194</v>
+        <v>1004.4185185955</v>
       </c>
       <c r="OC3" t="n">
-        <v>308.0019963524193</v>
+        <v>308.0019962919678</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992900832998295</v>
+        <v>0.9992900832985393</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.529217508969993e-05</v>
+        <v>1.529217508479204e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02142935642990572</v>
+        <v>0.0214293564224992</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>245.842592028738</v>
+        <v>245.8425921473107</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66391.14809948532</v>
+        <v>66391.14830550742</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.941440509599821</v>
+        <v>0.9414405120677429</v>
       </c>
       <c r="OL3" t="n">
-        <v>301423.937221722</v>
+        <v>301423.9373061851</v>
       </c>
       <c r="OM3" t="n">
-        <v>371944.7480669089</v>
+        <v>371944.7481853436</v>
       </c>
       <c r="ON3" t="n">
-        <v>3808.205261314759</v>
+        <v>3808.205260906358</v>
       </c>
       <c r="OO3" t="n">
-        <v>-564274.3043521888</v>
+        <v>-564274.3045849012</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1931655470325</v>
+        <v>716.1931655498615</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.665607142215</v>
+        <v>1004.665607147824</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.40278580622149</v>
+        <v>1.40278580622378</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9993185309262329</v>
+        <v>0.9993185309256458</v>
       </c>
       <c r="OT3" t="n">
-        <v>314.4174608312607</v>
+        <v>314.4174609071579</v>
       </c>
       <c r="OU3" t="n">
-        <v>93069.24568236772</v>
+        <v>93069.24597127434</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.074468792207535e-05</v>
+        <v>1.074468788872157e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66346.01324706644</v>
+        <v>66346.01345291013</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.507249570936677e-05</v>
+        <v>1.507249566260318e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004080492908386589</v>
+        <v>0.00408049290644056</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.581610038823861e-05</v>
+        <v>1.581610039446744e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02222284198991482</v>
+        <v>0.02222284199937835</v>
       </c>
       <c r="PB3" t="n">
-        <v>66391.14809948532</v>
+        <v>66391.14830550742</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.941440509599821</v>
+        <v>0.9414405120677429</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.941440509599821</v>
+        <v>0.9414405120677429</v>
       </c>
       <c r="PE3" t="n">
-        <v>301423.937221722</v>
+        <v>301423.9373061851</v>
       </c>
       <c r="PF3" t="n">
-        <v>371944.7480669089</v>
+        <v>371944.7481853436</v>
       </c>
       <c r="PG3" t="n">
-        <v>3808.205261314759</v>
+        <v>3808.205260906358</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1931655470325</v>
+        <v>716.1931655498615</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.665607142215</v>
+        <v>1004.665607147824</v>
       </c>
       <c r="PJ3" t="n">
-        <v>314.4174608312607</v>
+        <v>314.4174609071579</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9993185309262329</v>
+        <v>0.9993185309256458</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.581610038823861e-05</v>
+        <v>1.581610039446744e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02222284198991482</v>
+        <v>0.02222284199937835</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>269.8293781211259</v>
+        <v>269.8293789177603</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91897.64806045637</v>
+        <v>91897.64913858091</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.187171604488872</v>
+        <v>1.187171614908015</v>
       </c>
       <c r="PS3" t="n">
-        <v>318565.2985276274</v>
+        <v>318565.2990968035</v>
       </c>
       <c r="PT3" t="n">
-        <v>395974.1985661541</v>
+        <v>395974.1993641009</v>
       </c>
       <c r="PU3" t="n">
-        <v>3808.205261313122</v>
+        <v>3808.20526090472</v>
       </c>
       <c r="PV3" t="n">
-        <v>-631591.4588515654</v>
+        <v>-631591.4609771668</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.8186757192607</v>
+        <v>716.8186757451995</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.446142833739</v>
+        <v>1005.446142867129</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402650596156507</v>
+        <v>1.402650596152331</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9994140113567195</v>
+        <v>0.9994140113597095</v>
       </c>
       <c r="QA3" t="n">
-        <v>329.4151212458756</v>
+        <v>329.4151217326564</v>
       </c>
       <c r="QB3" t="n">
-        <v>128825.1218839315</v>
+        <v>128825.1233952906</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.762461120750788e-06</v>
+        <v>7.762461029682632e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91844.05741311023</v>
+        <v>91844.05849088584</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.08880207186628e-05</v>
+        <v>1.088802059089359e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003718394228968323</v>
+        <v>0.003718394218027043</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.7050226091282e-05</v>
+        <v>1.70502261315516e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02410252680352287</v>
+        <v>0.0241025268651169</v>
       </c>
       <c r="QI3" t="n">
-        <v>91897.64806045637</v>
+        <v>91897.64913858091</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.187171604488872</v>
+        <v>1.187171614908015</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.187171604488872</v>
+        <v>1.187171614908015</v>
       </c>
       <c r="QL3" t="n">
-        <v>318565.2985276274</v>
+        <v>318565.2990968035</v>
       </c>
       <c r="QM3" t="n">
-        <v>395974.1985661541</v>
+        <v>395974.1993641009</v>
       </c>
       <c r="QN3" t="n">
-        <v>3808.205261313122</v>
+        <v>3808.20526090472</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.8186757192607</v>
+        <v>716.8186757451995</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.446142833739</v>
+        <v>1005.446142867129</v>
       </c>
       <c r="QQ3" t="n">
-        <v>329.4151212458756</v>
+        <v>329.4151217326564</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9994140113567195</v>
+        <v>0.9994140113597095</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.7050226091282e-05</v>
+        <v>1.70502261315516e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02410252680352287</v>
+        <v>0.0241025268651169</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4576233858723904</v>
+        <v>0.4576233908341176</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8461802493438899</v>
+        <v>0.8461802606110084</v>
       </c>
       <c r="QY3" t="n">
-        <v>377372.8996016145</v>
+        <v>377372.9048669888</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.701005596946368</v>
+        <v>2.701005590476612</v>
       </c>
       <c r="RA3" t="n">
-        <v>382311.6246009337</v>
+        <v>382311.6253989809</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02707894916759332</v>
+        <v>0.02707894815726665</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.0007370772367439039</v>
+        <v>0.0007370769703535803</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01389216953959704</v>
+        <v>0.01389216956699069</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.08157448055825466</v>
+        <v>0.08157447793537258</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04147531841423464</v>
+        <v>0.04147531785919531</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1647579949164236</v>
+        <v>0.1647579904891788</v>
       </c>
       <c r="RH3" t="n">
-        <v>4.058117730743049e-11</v>
+        <v>-2.910885421592013e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760218516143717</v>
+        <v>0.01760218494988149</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8698,25 +8698,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.049140414519574</v>
+        <v>0.04914041445321804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202266822025431</v>
+        <v>0.08202266794234266</v>
       </c>
       <c r="H2" t="n">
-        <v>6.703776422867236e-12</v>
+        <v>-1.699076837557989e-09</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350623631</v>
+        <v>80.7124843898863</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350623631</v>
+        <v>80.7124843898863</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350623631</v>
+        <v>80.7124843898863</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350623631</v>
+        <v>80.7124843898863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750147159</v>
+        <v>292.3522749435974</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796843953</v>
+        <v>132772.179571498</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932747002566</v>
+        <v>1.582932746042441</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439824908</v>
+        <v>334649.843931615</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785918177</v>
+        <v>418527.178520496</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.91734772346</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142077711</v>
+        <v>-687417.3140100576</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517505</v>
+        <v>717.7129007485315</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845954</v>
+        <v>1006.647652842219</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602405</v>
+        <v>1.402577063603491</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405114</v>
+        <v>0.9994979633400147</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100795798</v>
+        <v>342.9081100378327</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856009964</v>
+        <v>186130.6854427785</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261060341e-06</v>
+        <v>5.372569265627222e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094705406</v>
+        <v>132706.2093576326</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418178553e-06</v>
+        <v>7.535442424589793e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124705671</v>
+        <v>0.003433462125539554</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103499139e-05</v>
+        <v>1.817140103151159e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250874719</v>
+        <v>0.02582429250338722</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796843953</v>
+        <v>132772.179571498</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932747002566</v>
+        <v>1.582932746042441</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932747002566</v>
+        <v>1.582932746042441</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439824908</v>
+        <v>334649.843931615</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785918177</v>
+        <v>418527.178520496</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.91734772346</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517505</v>
+        <v>717.7129007485315</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845954</v>
+        <v>1006.647652842219</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100795798</v>
+        <v>342.9081100378327</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405114</v>
+        <v>0.9994979633400147</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103499139e-05</v>
+        <v>1.817140103151159e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250874719</v>
+        <v>0.02582429250338722</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764204862495</v>
+        <v>0.2353764230918346</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764204862495</v>
+        <v>0.2353764230918346</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9703398509</v>
+        <v>183929.9722771984</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859854004585</v>
+        <v>2.742859882370068</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418898199902</v>
+        <v>306.841902677974</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773408887337</v>
+        <v>125.377346142579</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579721057289</v>
+        <v>280.0579838413524</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418898199902</v>
+        <v>306.841902677974</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773408887337</v>
+        <v>125.377346142579</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579721057289</v>
+        <v>280.0579838413524</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139883662613</v>
+        <v>248.6139844265291</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.28828102276</v>
+        <v>72670.28420161309</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.019019567960383</v>
+        <v>1.019019526918682</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.5302370096</v>
+        <v>303394.5274226943</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.458414538</v>
+        <v>374708.4544691701</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869471999</v>
+        <v>3793.461869704895</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.226670229</v>
+        <v>-568399.2157282745</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2663343143716</v>
+        <v>716.2663342282934</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375576355</v>
+        <v>1004.832375462508</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.40287533761894</v>
+        <v>1.402875337628588</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992923632767005</v>
+        <v>0.9992923632633006</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865753244643</v>
+        <v>316.1865728160108</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.411759607</v>
+        <v>101875.4060400571</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.815911246176618e-06</v>
+        <v>9.815911797267365e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.00542960376</v>
+        <v>72619.00135208503</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377049980351757e-05</v>
+        <v>1.377050057672389e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765690802917</v>
+        <v>0.004035765754617154</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.596159557322967e-05</v>
+        <v>1.596159536762172e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02244419792506518</v>
+        <v>0.02244419761283532</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.28828102276</v>
+        <v>72670.28420161309</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.019019567960383</v>
+        <v>1.019019526918682</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.019019567960383</v>
+        <v>1.019019526918682</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.5302370096</v>
+        <v>303394.5274226943</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.458414538</v>
+        <v>374708.4544691701</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869471999</v>
+        <v>3793.461869704895</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2663343143716</v>
+        <v>716.2663342282934</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375576355</v>
+        <v>1004.832375462508</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865753244643</v>
+        <v>316.1865728160108</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992923632767005</v>
+        <v>0.9992923632633006</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.596159557322967e-05</v>
+        <v>1.596159536762172e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02244419792506518</v>
+        <v>0.02244419761283532</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5884537391381</v>
+        <v>295.588453739088</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.3588885971</v>
+        <v>133020.3587809371</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.2222655833</v>
+        <v>336975.2222657673</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.461869479432</v>
+        <v>3793.461869712328</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.0972293164</v>
+        <v>-699519.0972977665</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656717748</v>
+        <v>717.8502656715031</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.739822663082</v>
+        <v>1006.73982266132</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402437069130232</v>
+        <v>1.402437069128309</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995380147661217</v>
+        <v>0.9995380147664908</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817654745</v>
+        <v>344.7973817653347</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4458770884</v>
+        <v>186467.4457259825</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.36286639899148e-06</v>
+        <v>5.362866403337336e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.5815609269</v>
+        <v>132959.5814533641</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.521082634738617e-06</v>
+        <v>7.521082640823088e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395470178526423</v>
+        <v>0.003395470178517001</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335238421e-05</v>
+        <v>1.832867335236625e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654991238</v>
+        <v>0.02606617654987415</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.3588885971</v>
+        <v>133020.3587809371</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.2222655833</v>
+        <v>336975.2222657673</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.461869479432</v>
+        <v>3793.461869712328</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656717748</v>
+        <v>717.8502656715031</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.739822663082</v>
+        <v>1006.73982266132</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817654745</v>
+        <v>344.7973817653347</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995380147661217</v>
+        <v>0.9995380147664908</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335238421e-05</v>
+        <v>1.832867335236625e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654991238</v>
+        <v>0.02606617654987415</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5884537391381</v>
+        <v>295.588453739088</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.3588885971</v>
+        <v>133020.3587809371</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.2222655833</v>
+        <v>336975.2222657673</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.461869479432</v>
+        <v>3793.461869712328</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.0972293164</v>
+        <v>-699519.0972977665</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656717748</v>
+        <v>717.8502656715031</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.739822663082</v>
+        <v>1006.73982266132</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402437069130232</v>
+        <v>1.402437069128309</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995380147661217</v>
+        <v>0.9995380147664908</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817654745</v>
+        <v>344.7973817653347</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4458770884</v>
+        <v>186467.4457259825</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.36286639899148e-06</v>
+        <v>5.362866403337336e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.5815609269</v>
+        <v>132959.5814533641</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.521082634738617e-06</v>
+        <v>7.521082640823088e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395470178526423</v>
+        <v>0.003395470178517001</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335238421e-05</v>
+        <v>1.832867335236625e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654991238</v>
+        <v>0.02606617654987415</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.3588885971</v>
+        <v>133020.3587809371</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.56846598069749</v>
+        <v>1.568465979427739</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.2222655833</v>
+        <v>336975.2222657673</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.461869479432</v>
+        <v>3793.461869712328</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656717748</v>
+        <v>717.8502656715031</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.739822663082</v>
+        <v>1006.73982266132</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817654745</v>
+        <v>344.7973817653347</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995380147661217</v>
+        <v>0.9995380147664908</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335238421e-05</v>
+        <v>1.832867335236625e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654991238</v>
+        <v>0.02606617654987415</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01795407856532947</v>
+        <v>0.01795407858124541</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9394,28 +9394,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004795530579</v>
+        <v>0.04927004796887655</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.08250419505987838</v>
+        <v>0.0825041950893651</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.402792899153688e-06</v>
+        <v>8.399075403078826e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456601458022</v>
+        <v>0.9704457085106064</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456601458022</v>
+        <v>0.9704457085106064</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.3920687403</v>
+        <v>512458.3995045139</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849774799156</v>
+        <v>2.74284977926613</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>2098.673929274024</v>
+        <v>2098.673803475685</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006905170556577506</v>
+        <v>0.006905168409943413</v>
       </c>
       <c r="IL2" t="n">
         <v>0</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01927731928544668</v>
+        <v>0.01927731349829798</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005994226194758038</v>
+        <v>0.005994224403355236</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02695523145301046</v>
+        <v>0.0269552300933276</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.0006584125542579167</v>
+        <v>0.0006584122084729887</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01388415223805262</v>
+        <v>0.01388415228325335</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.08117664815310963</v>
+        <v>0.08117664440349774</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04120011738503176</v>
+        <v>0.04120011667696115</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1638745617834624</v>
+        <v>0.1638745556655128</v>
       </c>
       <c r="IV2" t="n">
-        <v>2.195851833697304e-11</v>
+        <v>-4.217449944832197e-09</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>263.5638535072963</v>
+        <v>263.5638559590668</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.795983630943</v>
+        <v>108.7959853916458</v>
       </c>
       <c r="IZ2" t="n">
-        <v>240.0611147632851</v>
+        <v>240.061116657139</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.6199095977467</v>
+        <v>65.6199094190672</v>
       </c>
       <c r="JB2" t="n">
-        <v>132.0049691260863</v>
+        <v>132.0049716497638</v>
       </c>
       <c r="JC2" t="n">
-        <v>108.795983630943</v>
+        <v>108.7959853916458</v>
       </c>
       <c r="JD2" t="n">
-        <v>74.7579147632851</v>
+        <v>74.75791665713896</v>
       </c>
       <c r="JE2" t="n">
-        <v>34.4944580062091</v>
+        <v>34.4944582508987</v>
       </c>
       <c r="JF2" t="n">
-        <v>260.9393090751067</v>
+        <v>260.9393084304317</v>
       </c>
       <c r="JG2" t="n">
-        <v>86794.20866458571</v>
+        <v>86794.20807993639</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.159534376293466</v>
+        <v>1.159534371352313</v>
       </c>
       <c r="JI2" t="n">
-        <v>312198.8391439543</v>
+        <v>312198.8386828943</v>
       </c>
       <c r="JJ2" t="n">
-        <v>387051.4786508825</v>
+        <v>387051.4780045836</v>
       </c>
       <c r="JK2" t="n">
-        <v>3790.970718529598</v>
+        <v>3790.970717985071</v>
       </c>
       <c r="JL2" t="n">
-        <v>-602161.8013661916</v>
+        <v>-602161.799426458</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5720083845899</v>
+        <v>716.5720083674227</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.235563503579</v>
+        <v>1005.235563485034</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402839563562831</v>
+        <v>1.402839563570559</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993356513664547</v>
+        <v>0.9993356513623362</v>
       </c>
       <c r="JQ2" t="n">
-        <v>323.9394399503834</v>
+        <v>323.9394395497748</v>
       </c>
       <c r="JR2" t="n">
-        <v>121677.7814327324</v>
+        <v>121677.7806132714</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.218427293998896e-06</v>
+        <v>8.218427349347382e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>86736.77631653326</v>
+        <v>86736.77573191095</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.152913495828627e-05</v>
+        <v>1.152913503599482e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003845620282822215</v>
+        <v>0.003845620292329902</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659884706604323e-05</v>
+        <v>1.65988470330548e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02341396450407338</v>
+        <v>0.02341396445379511</v>
       </c>
       <c r="JY2" t="n">
-        <v>86794.20866458571</v>
+        <v>86794.20807993639</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.159534376293466</v>
+        <v>1.159534371352313</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.159534376293466</v>
+        <v>1.159534371352313</v>
       </c>
       <c r="KB2" t="n">
-        <v>312198.8391439543</v>
+        <v>312198.8386828943</v>
       </c>
       <c r="KC2" t="n">
-        <v>387051.4786508825</v>
+        <v>387051.4780045836</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.970718529598</v>
+        <v>3790.970717985071</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5720083845899</v>
+        <v>716.5720083674227</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.235563503579</v>
+        <v>1005.235563485034</v>
       </c>
       <c r="KG2" t="n">
-        <v>323.9394399503834</v>
+        <v>323.9394395497748</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993356513664547</v>
+        <v>0.9993356513623362</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.659884706604323e-05</v>
+        <v>1.65988470330548e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02341396450407338</v>
+        <v>0.02341396445379511</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5911436440782</v>
+        <v>295.5911436446684</v>
       </c>
       <c r="KN2" t="n">
-        <v>134180.3381324807</v>
+        <v>134180.3383871361</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354115515</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.785669853</v>
+        <v>336974.7856697567</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="KR2" t="n">
-        <v>3790.970718527637</v>
+        <v>3790.970717983109</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698792.9391222069</v>
+        <v>-698792.9389634875</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8532872838035</v>
+        <v>717.8532872844669</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.758869098898</v>
+        <v>1006.758869103079</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402457698436193</v>
+        <v>1.402457698440721</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995340644354362</v>
+        <v>0.9995340644345692</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8001391117618</v>
+        <v>344.800139112367</v>
       </c>
       <c r="KY2" t="n">
-        <v>188095.5405499812</v>
+        <v>188095.540907408</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.316447147423347e-06</v>
+        <v>5.316447137320818e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>134118.5126365784</v>
+        <v>134118.5128910028</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.456092230233009e-06</v>
+        <v>7.456092216088714e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395546720601314</v>
+        <v>0.003395546720618121</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832897112378667e-05</v>
+        <v>1.832897112385204e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.0260667489754458</v>
+        <v>0.02606674897557146</v>
       </c>
       <c r="LF2" t="n">
-        <v>134180.3381324807</v>
+        <v>134180.3383871361</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354115515</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.58213535111463</v>
+        <v>1.582135354115515</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.785669853</v>
+        <v>336974.7856697567</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885894</v>
       </c>
       <c r="LK2" t="n">
-        <v>3790.970718527637</v>
+        <v>3790.970717983109</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8532872838035</v>
+        <v>717.8532872844669</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.758869098898</v>
+        <v>1006.758869103079</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8001391117618</v>
+        <v>344.800139112367</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995340644354362</v>
+        <v>0.9995340644345692</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832897112378667e-05</v>
+        <v>1.832897112385204e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.0260667489754458</v>
+        <v>0.02606674897557146</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>269.6356177731206</v>
+        <v>269.6356174610105</v>
       </c>
       <c r="LU2" t="n">
-        <v>97323.20170547783</v>
+        <v>97323.20149607272</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.258211130453946</v>
+        <v>1.258211129206604</v>
       </c>
       <c r="LW2" t="n">
-        <v>318413.680955745</v>
+        <v>318413.6807322385</v>
       </c>
       <c r="LX2" t="n">
-        <v>395764.1345877717</v>
+        <v>395764.1342745167</v>
       </c>
       <c r="LY2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717977885</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-626416.5970608298</v>
+        <v>-626416.5960440605</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.8304959753223</v>
+        <v>716.8304959659251</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.554151034718</v>
+        <v>1005.554151026328</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402778141667309</v>
+        <v>1.402778141673994</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993770564607412</v>
+        <v>0.999377056457984</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2996777538498</v>
+        <v>329.2996775631382</v>
       </c>
       <c r="MF2" t="n">
-        <v>136438.2480559474</v>
+        <v>136438.2477626533</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.329323076546271e-06</v>
+        <v>7.329323092301733e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>97262.88427461534</v>
+        <v>97262.88406507087</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.02814142049969e-05</v>
+        <v>1.028141422714732e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.00372182323380169</v>
+        <v>0.003721823238126567</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.704129316204277e-05</v>
+        <v>1.704129314629394e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02408955281453984</v>
+        <v>0.02408955279048024</v>
       </c>
       <c r="MM2" t="n">
-        <v>97323.20170547783</v>
+        <v>97323.20149607272</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.258211130453946</v>
+        <v>1.258211129206604</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.258211130453946</v>
+        <v>1.258211129206604</v>
       </c>
       <c r="MP2" t="n">
-        <v>318413.680955745</v>
+        <v>318413.6807322385</v>
       </c>
       <c r="MQ2" t="n">
-        <v>395764.1345877717</v>
+        <v>395764.1342745167</v>
       </c>
       <c r="MR2" t="n">
-        <v>3790.970718522412</v>
+        <v>3790.970717977885</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.8304959753223</v>
+        <v>716.8304959659251</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.554151034718</v>
+        <v>1005.554151026328</v>
       </c>
       <c r="MU2" t="n">
-        <v>329.2996777538498</v>
+        <v>329.2996775631382</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993770564607412</v>
+        <v>0.999377056457984</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.704129316204277e-05</v>
+        <v>1.704129314629394e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02408955281453984</v>
+        <v>0.02408955279048024</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8136207605584099</v>
+        <v>0.8136207691332039</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4074989113591881</v>
+        <v>0.4074989196537171</v>
       </c>
       <c r="NC2" t="n">
-        <v>240309.1992007893</v>
+        <v>240309.2032485854</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.708301031685084</v>
+        <v>2.708301063973997</v>
       </c>
       <c r="NE2" t="n">
-        <v>382101.5606226517</v>
+        <v>382101.5603094908</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>162.228053896676</v>
+        <v>162.2280079701715</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.008132928326</v>
+        <v>138.0081074857132</v>
       </c>
       <c r="NI2" t="n">
-        <v>-85.27424415812962</v>
+        <v>-85.27419796270067</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-31.71162416028788</v>
+        <v>-31.7116150041187</v>
       </c>
       <c r="NK2" t="n">
-        <v>286.0686985239439</v>
+        <v>286.0686457854929</v>
       </c>
       <c r="NL2" t="n">
-        <v>138.008132928326</v>
+        <v>138.0081074857132</v>
       </c>
       <c r="NM2" t="n">
-        <v>-250.5774441581296</v>
+        <v>-250.5773979627007</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO2" t="n">
-        <v>228.7656514654214</v>
+        <v>228.7656662248821</v>
       </c>
       <c r="NP2" t="n">
-        <v>51133.07041365292</v>
+        <v>51133.08311673613</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7792331426102896</v>
+        <v>0.7792332859111818</v>
       </c>
       <c r="NR2" t="n">
-        <v>289226.7518983941</v>
+        <v>289226.7624372827</v>
       </c>
       <c r="NS2" t="n">
-        <v>354846.4844502802</v>
+        <v>354846.4992237377</v>
       </c>
       <c r="NT2" t="n">
-        <v>3811.027277336909</v>
+        <v>3811.027270655083</v>
       </c>
       <c r="NU2" t="n">
-        <v>-516985.653402189</v>
+        <v>-516985.6933488664</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8964416470797</v>
+        <v>715.8964418614878</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.248234606206</v>
+        <v>1004.2482349421</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.40278422434355</v>
+        <v>1.402784224392615</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992804916581159</v>
+        <v>0.9992804916722305</v>
       </c>
       <c r="NZ2" t="n">
-        <v>303.2889467768453</v>
+        <v>303.2889565702814</v>
       </c>
       <c r="OA2" t="n">
-        <v>71677.12573268081</v>
+        <v>71677.14354311791</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.395145229078369e-05</v>
+        <v>1.395144882410726e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>51096.33006189744</v>
+        <v>51096.34275660115</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.957087718019304e-05</v>
+        <v>1.957087231787856e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004384345527436901</v>
+        <v>0.004384345245429042</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.490881766648105e-05</v>
+        <v>1.490881846160073e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02085036569039633</v>
+        <v>0.02085036688981449</v>
       </c>
       <c r="OH2" t="n">
-        <v>51133.07041365292</v>
+        <v>51133.08311673613</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7792331426102896</v>
+        <v>0.7792332859111818</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7792331426102896</v>
+        <v>0.7792332859111818</v>
       </c>
       <c r="OK2" t="n">
-        <v>289226.7518983941</v>
+        <v>289226.7624372827</v>
       </c>
       <c r="OL2" t="n">
-        <v>354846.4844502802</v>
+        <v>354846.4992237377</v>
       </c>
       <c r="OM2" t="n">
-        <v>3811.027277336909</v>
+        <v>3811.027270655083</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8964416470797</v>
+        <v>715.8964418614878</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.248234606206</v>
+        <v>1004.2482349421</v>
       </c>
       <c r="OP2" t="n">
-        <v>303.2889467768453</v>
+        <v>303.2889565702814</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992804916581159</v>
+        <v>0.9992804916722305</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.490881766648105e-05</v>
+        <v>1.490881846160073e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02085036569039633</v>
+        <v>0.02085036688981449</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>241.9069497001396</v>
+        <v>241.9069570174477</v>
       </c>
       <c r="OW2" t="n">
-        <v>62141.48281113678</v>
+        <v>62141.49081643484</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.8955202132051185</v>
+        <v>0.8955203014765077</v>
       </c>
       <c r="OY2" t="n">
-        <v>298613.96419008</v>
+        <v>298613.9694136161</v>
       </c>
       <c r="OZ2" t="n">
-        <v>368005.4551858318</v>
+        <v>368005.4625087228</v>
       </c>
       <c r="PA2" t="n">
-        <v>3811.02727732947</v>
+        <v>3811.027270647644</v>
       </c>
       <c r="PB2" t="n">
-        <v>-553908.5286969681</v>
+        <v>-553908.547644158</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.1127518115014</v>
+        <v>716.1127519564241</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.546470263708</v>
+        <v>1004.546470486855</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402776961759968</v>
+        <v>1.402776961787692</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9993132453403802</v>
+        <v>0.9993132453457122</v>
       </c>
       <c r="PG2" t="n">
-        <v>311.887923057987</v>
+        <v>311.8879277798497</v>
       </c>
       <c r="PH2" t="n">
-        <v>87110.90177087193</v>
+        <v>87110.91299504093</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.147961942387306e-05</v>
+        <v>1.147961794473361e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62098.89679224546</v>
+        <v>62098.90479241062</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.610334565758138e-05</v>
+        <v>1.610334358299688e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004146623416089497</v>
+        <v>0.004146623291200044</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.560911248337151e-05</v>
+        <v>1.560911286944832e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02190894418069088</v>
+        <v>0.02190894476583072</v>
       </c>
       <c r="PO2" t="n">
-        <v>62141.48281113678</v>
+        <v>62141.49081643484</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.8955202132051185</v>
+        <v>0.8955203014765077</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.8955202132051185</v>
+        <v>0.8955203014765077</v>
       </c>
       <c r="PR2" t="n">
-        <v>298613.96419008</v>
+        <v>298613.9694136161</v>
       </c>
       <c r="PS2" t="n">
-        <v>368005.4551858318</v>
+        <v>368005.4625087228</v>
       </c>
       <c r="PT2" t="n">
-        <v>3811.02727732947</v>
+        <v>3811.027270647644</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.1127518115014</v>
+        <v>716.1127519564241</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.546470263708</v>
+        <v>1004.546470486855</v>
       </c>
       <c r="PW2" t="n">
-        <v>311.887923057987</v>
+        <v>311.8879277798497</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9993132453403802</v>
+        <v>0.9993132453457122</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.560911248337151e-05</v>
+        <v>1.560911286944832e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02190894418069088</v>
+        <v>0.02190894476583072</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>269.61724696865</v>
+        <v>269.6172466622532</v>
       </c>
       <c r="QD2" t="n">
-        <v>90751.39238213465</v>
+        <v>90751.39412640462</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.173280702228197</v>
+        <v>1.173280726129801</v>
       </c>
       <c r="QF2" t="n">
-        <v>318415.7283539544</v>
+        <v>318415.7281300442</v>
       </c>
       <c r="QG2" t="n">
-        <v>395764.1345876777</v>
+        <v>395764.1342747172</v>
       </c>
       <c r="QH2" t="n">
-        <v>3811.027277326241</v>
+        <v>3811.027270651516</v>
       </c>
       <c r="QI2" t="n">
-        <v>-631754.5480474532</v>
+        <v>-631754.5453931063</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.8090419918185</v>
+        <v>716.8090419887444</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.419714721753</v>
+        <v>1005.419714752959</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402632578305602</v>
+        <v>1.402632578355152</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9994186961908841</v>
+        <v>0.9994186961760185</v>
       </c>
       <c r="QN2" t="n">
-        <v>329.2850255909182</v>
+        <v>329.2850254047528</v>
       </c>
       <c r="QO2" t="n">
-        <v>127217.2168934788</v>
+        <v>127217.2193412493</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.860571268724714e-06</v>
+        <v>7.860571117480456e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>90698.88926090598</v>
+        <v>90698.89100282778</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.102549334560628e-05</v>
+        <v>1.102549313385565e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003721194223888775</v>
+        <v>0.003721194228393732</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.703937090922602e-05</v>
+        <v>1.703937089406013e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02408581986728157</v>
+        <v>0.02408581984434731</v>
       </c>
       <c r="QV2" t="n">
-        <v>90751.39238213465</v>
+        <v>90751.39412640462</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.173280702228197</v>
+        <v>1.173280726129801</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.173280702228197</v>
+        <v>1.173280726129801</v>
       </c>
       <c r="QY2" t="n">
-        <v>318415.7283539544</v>
+        <v>318415.7281300442</v>
       </c>
       <c r="QZ2" t="n">
-        <v>395764.1345876777</v>
+        <v>395764.1342747172</v>
       </c>
       <c r="RA2" t="n">
-        <v>3811.027277326241</v>
+        <v>3811.027270651516</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.8090419918185</v>
+        <v>716.8090419887444</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.419714721753</v>
+        <v>1005.419714752959</v>
       </c>
       <c r="RD2" t="n">
-        <v>329.2850255909182</v>
+        <v>329.2850254047528</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9994186961908841</v>
+        <v>0.9994186961760185</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.703937090922602e-05</v>
+        <v>1.703937089406013e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02408581986728157</v>
+        <v>0.02408581984434731</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.0271408760225886</v>
+        <v>0.02714087683318237</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.0008514082190737543</v>
+        <v>0.000851408157259559</v>
       </c>
       <c r="RL2" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.08223654304912123</v>
+        <v>0.08223654235141194</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04172633497235541</v>
+        <v>0.04172633512584942</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1658540044917156</v>
+        <v>0.1658540046962799</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.402862062469979e-05</v>
+        <v>2.402492539016476e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5348960310645301</v>
+        <v>0.534895862364109</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9432216424768959</v>
+        <v>0.9432214381310716</v>
       </c>
       <c r="RS2" t="n">
-        <v>389644.8710686252</v>
+        <v>389644.8501103261</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.708274497082696</v>
+        <v>2.708274495847627</v>
       </c>
       <c r="RU2" t="n">
-        <v>382101.5606226517</v>
+        <v>382101.5603094908</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>3800.74411852198</v>
+        <v>3800.744103938865</v>
       </c>
       <c r="RX2" t="n">
-        <v>4.282437071728111</v>
+        <v>4.282435228787506</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.009585105653769365</v>
+        <v>0.009585103168857682</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0002341272382443393</v>
+        <v>0.0002341270663985621</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.02886589011572067</v>
+        <v>0.02886588275504293</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01465049479436485</v>
+        <v>0.01465049148348396</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004937114576320574</v>
+        <v>0.004937113561499767</v>
       </c>
     </row>
     <row r="3">
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01761869855190326</v>
+        <v>0.01761869846286048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10215,25 +10215,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914443528886805</v>
+        <v>0.04914443526763498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204320238001445</v>
+        <v>0.0820432022697386</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.091904344718841e-11</v>
+        <v>-9.479639295761899e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350688072</v>
+        <v>80.71248350547221</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350688072</v>
+        <v>80.71248350547221</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350688072</v>
+        <v>80.71248350547221</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350688072</v>
+        <v>80.71248350547221</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750146641</v>
+        <v>292.3522750147773</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796843124</v>
+        <v>132772.1796844923</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747001858</v>
+        <v>1.582932747003388</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439824536</v>
+        <v>334649.8439825346</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785917656</v>
+        <v>418527.1785918792</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142076276</v>
+        <v>-687417.3142079421</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517481</v>
+        <v>717.7129007517532</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.647652845957</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602405</v>
+        <v>1.402577063602404</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405119</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795494</v>
+        <v>342.9081100796159</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856008802</v>
+        <v>186130.6856011323</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261063695e-06</v>
+        <v>5.372569261056419e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094704577</v>
+        <v>132706.2094706376</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418183262e-06</v>
+        <v>7.535442418173047e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124706278</v>
+        <v>0.003433462124704951</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498885e-05</v>
+        <v>1.817140103499439e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250874327</v>
+        <v>0.02582429250875181</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796843124</v>
+        <v>132772.1796844923</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747001858</v>
+        <v>1.582932747003388</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747001858</v>
+        <v>1.582932747003388</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439824536</v>
+        <v>334649.8439825346</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785917656</v>
+        <v>418527.1785918792</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517481</v>
+        <v>717.7129007517532</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.647652845957</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795494</v>
+        <v>342.9081100796159</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405119</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498885e-05</v>
+        <v>1.817140103499439e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250874327</v>
+        <v>0.02582429250875181</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10358,10 +10358,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950264</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828228</v>
@@ -10373,7 +10373,7 @@
         <v>3782.917347723355</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984905</v>
       </c>
       <c r="BF3" t="n">
         <v>717.8632360362507</v>
@@ -10391,16 +10391,16 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367839</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309092e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996778e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695746386</v>
@@ -10412,13 +10412,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950264</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828228</v>
@@ -10459,10 +10459,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950264</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828228</v>
@@ -10474,7 +10474,7 @@
         <v>3782.917347723355</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984905</v>
       </c>
       <c r="CM3" t="n">
         <v>717.8632360362507</v>
@@ -10492,16 +10492,16 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367839</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309092e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996778e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695746386</v>
@@ -10513,13 +10513,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950264</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828228</v>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2353764204881496</v>
+        <v>0.2353764204839965</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2353764204881496</v>
+        <v>0.2353764204839965</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703412629</v>
+        <v>183929.9703381749</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.742859854025258</v>
+        <v>2.742859853980044</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418833535969</v>
+        <v>306.8418858390155</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773382465286</v>
+        <v>125.3773392620848</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.0579662037806</v>
+        <v>280.0579684722495</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418833535969</v>
+        <v>306.8418858390155</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773382465286</v>
+        <v>125.3773392620848</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.0579662037806</v>
+        <v>280.0579684722495</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139903476808</v>
+        <v>248.6139895861613</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.29039170557</v>
+        <v>72670.28957928733</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.01901958942971</v>
+        <v>1.019019581161293</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5316522676</v>
+        <v>303394.5311083446</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.4603985983</v>
+        <v>374708.4596360681</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.461869121143</v>
+        <v>3793.461869260816</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.2321153809</v>
+        <v>-568399.2300238403</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663343578994</v>
+        <v>716.2663343411655</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375635082</v>
+        <v>1004.832375612481</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337615678</v>
+        <v>1.402875337616899</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992923632828666</v>
+        <v>0.9992923632805086</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.1865765860456</v>
+        <v>316.1865761011817</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4147189443</v>
+        <v>101875.4135798714</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815910961038225e-06</v>
+        <v>9.815911070790301e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.00753925249</v>
+        <v>72619.00672723338</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.377049940347193e-05</v>
+        <v>1.37704995574524e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004035765658719598</v>
+        <v>0.004035765671049963</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159567664592e-05</v>
+        <v>1.596159563689974e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02244419808211849</v>
+        <v>0.02244419802175768</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.29039170557</v>
+        <v>72670.28957928733</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.01901958942971</v>
+        <v>1.019019581161293</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.01901958942971</v>
+        <v>1.019019581161293</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5316522676</v>
+        <v>303394.5311083446</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.4603985983</v>
+        <v>374708.4596360681</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.461869121143</v>
+        <v>3793.461869260816</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663343578994</v>
+        <v>716.2663343411655</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375635082</v>
+        <v>1004.832375612481</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.1865765860456</v>
+        <v>316.1865761011817</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992923632828666</v>
+        <v>0.9992923632805086</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159567664592e-05</v>
+        <v>1.596159563689974e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02244419808211849</v>
+        <v>0.02244419802175768</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5884537395153</v>
+        <v>295.5884537395655</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.359051261</v>
+        <v>133020.3589868213</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.222265522</v>
+        <v>336975.2222656898</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310884889</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869128575</v>
+        <v>3793.461869268247</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0971270382</v>
+        <v>-699519.0971683131</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8502656721985</v>
+        <v>717.8502656720394</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822665753</v>
+        <v>1006.739822664701</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069133125</v>
+        <v>1.40243706913197</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147655677</v>
+        <v>0.9995380147657896</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817658611</v>
+        <v>344.7973817658241</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4461053935</v>
+        <v>186467.4460149493</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866392425349e-06</v>
+        <v>5.362866395026556e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5817234444</v>
+        <v>132959.5816590631</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082625545541e-06</v>
+        <v>7.521082629187379e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178537158</v>
+        <v>0.003395470178530586</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832867335242596e-05</v>
+        <v>1.832867335241911e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606617654999264</v>
+        <v>0.02606617654997575</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.359051261</v>
+        <v>133020.3589868213</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.222265522</v>
+        <v>336975.2222656898</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310884889</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869128575</v>
+        <v>3793.461869268247</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8502656721985</v>
+        <v>717.8502656720394</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822665753</v>
+        <v>1006.739822664701</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817658611</v>
+        <v>344.7973817658241</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147655677</v>
+        <v>0.9995380147657896</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832867335242596e-05</v>
+        <v>1.832867335241911e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606617654999264</v>
+        <v>0.02606617654997575</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5884537395153</v>
+        <v>295.5884537395655</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.359051261</v>
+        <v>133020.3589868213</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.222265522</v>
+        <v>336975.2222656898</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310884889</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869128575</v>
+        <v>3793.461869268247</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0971270382</v>
+        <v>-699519.0971683131</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8502656721985</v>
+        <v>717.8502656720394</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822665753</v>
+        <v>1006.739822664701</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069133125</v>
+        <v>1.40243706913197</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147655677</v>
+        <v>0.9995380147657896</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817658611</v>
+        <v>344.7973817658241</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4461053935</v>
+        <v>186467.4460149493</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866392425349e-06</v>
+        <v>5.362866395026556e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5817234444</v>
+        <v>132959.5816590631</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082625545541e-06</v>
+        <v>7.521082629187379e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178537158</v>
+        <v>0.003395470178530586</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832867335242596e-05</v>
+        <v>1.832867335241911e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606617654999264</v>
+        <v>0.02606617654997575</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.359051261</v>
+        <v>133020.3589868213</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465982614355</v>
+        <v>1.568465981853922</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.222265522</v>
+        <v>336975.2222656898</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310884889</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869128575</v>
+        <v>3793.461869268247</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8502656721985</v>
+        <v>717.8502656720394</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822665753</v>
+        <v>1006.739822664701</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817658611</v>
+        <v>344.7973817658241</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147655677</v>
+        <v>0.9995380147657896</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832867335242596e-05</v>
+        <v>1.832867335241911e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606617654999264</v>
+        <v>0.02606617654997575</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01795407854530189</v>
+        <v>0.01795407855303094</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10911,196 +10911,196 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004793822921</v>
+        <v>0.04927004794481941</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.08250419502277423</v>
+        <v>0.08250419503709348</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.402798049589322e-06</v>
+        <v>8.40278721432608e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9704456358225388</v>
+        <v>0.9704456451712995</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9704456358225388</v>
+        <v>0.9704456451712995</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3887457141</v>
+        <v>512458.3900145718</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774784311</v>
+        <v>2.742849774745657</v>
       </c>
       <c r="IG3" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="IH3" t="n">
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>2113.446642651572</v>
+        <v>2113.446581288241</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006643766000257871</v>
+        <v>0.006643765783897504</v>
       </c>
       <c r="IL3" t="n">
         <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01853168253672086</v>
+        <v>0.01853168201886971</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005761901172414751</v>
+        <v>0.005761901013893078</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02707894916759332</v>
+        <v>0.02707894815726665</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0007370772367439039</v>
+        <v>0.0007370769703535803</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01389216953959704</v>
+        <v>0.01389216956699069</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.08157448055825466</v>
+        <v>0.08157447793537258</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04147531841423464</v>
+        <v>0.04147531785919531</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1647579949164236</v>
+        <v>0.1647579904891788</v>
       </c>
       <c r="IV3" t="n">
-        <v>4.058117730743049e-11</v>
+        <v>-2.910885421592013e-11</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>263.7260051725237</v>
+        <v>263.7260042865705</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.7970349463297</v>
+        <v>108.7970349387058</v>
       </c>
       <c r="IZ3" t="n">
-        <v>240.2386542402058</v>
+        <v>240.2386532710884</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.63562334214573</v>
+        <v>65.63562325679649</v>
       </c>
       <c r="JB3" t="n">
-        <v>132.1064612927727</v>
+        <v>132.1064607367764</v>
       </c>
       <c r="JC3" t="n">
-        <v>108.7970349463297</v>
+        <v>108.7970349387058</v>
       </c>
       <c r="JD3" t="n">
-        <v>74.93545424020576</v>
+        <v>74.93545327108842</v>
       </c>
       <c r="JE3" t="n">
-        <v>34.55766213547</v>
+        <v>34.55766179119273</v>
       </c>
       <c r="JF3" t="n">
-        <v>260.8965730351788</v>
+        <v>260.8965732685749</v>
       </c>
       <c r="JG3" t="n">
-        <v>86724.35655278843</v>
+        <v>86724.35690964681</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.158791006754734</v>
+        <v>1.158791010485906</v>
       </c>
       <c r="JI3" t="n">
-        <v>312168.3505454223</v>
+        <v>312168.3507119904</v>
       </c>
       <c r="JJ3" t="n">
-        <v>387008.728186655</v>
+        <v>387008.7284202033</v>
       </c>
       <c r="JK3" t="n">
-        <v>3791.037829178901</v>
+        <v>3791.037828893694</v>
       </c>
       <c r="JL3" t="n">
-        <v>-602060.0496928437</v>
+        <v>-602060.0502696998</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.5707622879925</v>
+        <v>716.5707622947101</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.233646352782</v>
+        <v>1005.233646362707</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402839327609595</v>
+        <v>1.402839327610295</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993356156802524</v>
+        <v>0.9993356156806338</v>
       </c>
       <c r="JQ3" t="n">
-        <v>323.9128724251436</v>
+        <v>323.9128725702362</v>
       </c>
       <c r="JR3" t="n">
-        <v>121579.8297243966</v>
+        <v>121579.8302247897</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.225048532037354e-06</v>
+        <v>8.225048498185048e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>86666.96700866366</v>
+        <v>86666.96736532061</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.153842155223956e-05</v>
+        <v>1.153842150475598e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003846245886670948</v>
+        <v>0.003846245883249991</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659665536359381e-05</v>
+        <v>1.659665537556004e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02341062004579145</v>
+        <v>0.02341062006404814</v>
       </c>
       <c r="JY3" t="n">
-        <v>86724.35655278843</v>
+        <v>86724.35690964681</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.158791006754734</v>
+        <v>1.158791010485906</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.158791006754734</v>
+        <v>1.158791010485906</v>
       </c>
       <c r="KB3" t="n">
-        <v>312168.3505454223</v>
+        <v>312168.3507119904</v>
       </c>
       <c r="KC3" t="n">
-        <v>387008.728186655</v>
+        <v>387008.7284202033</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.037829178901</v>
+        <v>3791.037828893694</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.5707622879925</v>
+        <v>716.5707622947101</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.233646352782</v>
+        <v>1005.233646362707</v>
       </c>
       <c r="KG3" t="n">
-        <v>323.9128724251436</v>
+        <v>323.9128725702362</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993356156802524</v>
+        <v>0.9993356156806338</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.659665536359381e-05</v>
+        <v>1.659665537556004e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02341062004579145</v>
+        <v>0.02341062006404814</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.591070874742</v>
+        <v>295.5910708749432</v>
       </c>
       <c r="KN3" t="n">
-        <v>134148.9564863206</v>
+        <v>134148.9566161506</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.581765546927909</v>
+        <v>1.581765548458372</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.7974823033</v>
+        <v>336974.7974821826</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KR3" t="n">
-        <v>3791.037829184127</v>
+        <v>3791.037828906109</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698812.5005664027</v>
+        <v>-698812.5004850866</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8532055401566</v>
+        <v>717.8532055404904</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.75835383118</v>
+        <v>1006.758353833309</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402457140347563</v>
+        <v>1.402457140349877</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995341712884925</v>
+        <v>0.9995341712880492</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8000645106371</v>
+        <v>344.8000645108876</v>
       </c>
       <c r="KY3" t="n">
-        <v>188051.4942155156</v>
+        <v>188051.4943977413</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.317692391499715e-06</v>
+        <v>5.317692386346763e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>134087.1594613664</v>
+        <v>134087.1595910783</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.457835664630686e-06</v>
+        <v>7.457835657416196e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395544649984886</v>
+        <v>0.003395544649994612</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832896306782564e-05</v>
+        <v>1.832896306785414e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606673348871829</v>
+        <v>0.02606673348877493</v>
       </c>
       <c r="LF3" t="n">
-        <v>134148.9564863206</v>
+        <v>134148.9566161506</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.581765546927909</v>
+        <v>1.581765548458372</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.581765546927909</v>
+        <v>1.581765548458372</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.7974823033</v>
+        <v>336974.7974821826</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310887904</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="LK3" t="n">
-        <v>3791.037829184127</v>
+        <v>3791.037828906109</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8532055401566</v>
+        <v>717.8532055404904</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.75835383118</v>
+        <v>1006.758353833309</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8000645106371</v>
+        <v>344.8000645108876</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995341712884925</v>
+        <v>0.9995341712880492</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832896306782564e-05</v>
+        <v>1.832896306785414e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606673348871829</v>
+        <v>0.02606673348877493</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>269.6062651980181</v>
+        <v>269.606265357958</v>
       </c>
       <c r="LU3" t="n">
-        <v>97263.52435529322</v>
+        <v>97263.52464852606</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.257576517040151</v>
+        <v>1.257576520085203</v>
       </c>
       <c r="LW3" t="n">
-        <v>318392.7538441258</v>
+        <v>318392.75395823</v>
       </c>
       <c r="LX3" t="n">
-        <v>395734.7867442105</v>
+        <v>395734.7869042143</v>
       </c>
       <c r="LY3" t="n">
-        <v>3791.037829172275</v>
+        <v>3791.037828900884</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-626352.7636033288</v>
+        <v>-626352.7639764947</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.8294850069439</v>
+        <v>716.8294850123498</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.552545550858</v>
+        <v>1005.552545558954</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402777880350607</v>
+        <v>1.402777880351322</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993770519436046</v>
+        <v>0.999377051943832</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2817207412884</v>
+        <v>329.2817208391207</v>
       </c>
       <c r="MF3" t="n">
-        <v>136354.5593761889</v>
+        <v>136354.5597873774</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.333821506042182e-06</v>
+        <v>7.333821483926437e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>97203.24314075214</v>
+        <v>97203.24343382695</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.028772258711555e-05</v>
+        <v>1.028772255609732e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003722224627060297</v>
+        <v>0.003722224624868604</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.703980595085751e-05</v>
+        <v>1.703980595895654e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02408727594540051</v>
+        <v>0.02408727595779592</v>
       </c>
       <c r="MM3" t="n">
-        <v>97263.52435529322</v>
+        <v>97263.52464852606</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.257576517040151</v>
+        <v>1.257576520085203</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.257576517040151</v>
+        <v>1.257576520085203</v>
       </c>
       <c r="MP3" t="n">
-        <v>318392.7538441258</v>
+        <v>318392.75395823</v>
       </c>
       <c r="MQ3" t="n">
-        <v>395734.7867442105</v>
+        <v>395734.7869042143</v>
       </c>
       <c r="MR3" t="n">
-        <v>3791.037829172275</v>
+        <v>3791.037828900884</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.8294850069439</v>
+        <v>716.8294850123498</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.552545550858</v>
+        <v>1005.552545558954</v>
       </c>
       <c r="MU3" t="n">
-        <v>329.2817207412884</v>
+        <v>329.2817208391207</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993770519436046</v>
+        <v>0.999377051943832</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.703980595085751e-05</v>
+        <v>1.703980595895654e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02408727594540051</v>
+        <v>0.02408727595779592</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8141880969348352</v>
+        <v>0.8141880938349711</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4078456663475225</v>
+        <v>0.4078456644483335</v>
       </c>
       <c r="NC3" t="n">
-        <v>240371.5206856991</v>
+        <v>240371.5202747075</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.706590912489871</v>
+        <v>2.706590921015115</v>
       </c>
       <c r="NE3" t="n">
-        <v>382072.2127790904</v>
+        <v>382072.2129391881</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>162.2027705552943</v>
+        <v>162.2027302214416</v>
       </c>
       <c r="NH3" t="n">
-        <v>137.9941259791723</v>
+        <v>137.9941036336971</v>
       </c>
       <c r="NI3" t="n">
-        <v>-85.24881213869054</v>
+        <v>-85.2487715666463</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-31.7065826202612</v>
+        <v>-31.70657457616862</v>
       </c>
       <c r="NK3" t="n">
-        <v>286.0396643675527</v>
+        <v>286.0396180489707</v>
       </c>
       <c r="NL3" t="n">
-        <v>137.9941259791723</v>
+        <v>137.9941036336971</v>
       </c>
       <c r="NM3" t="n">
-        <v>-250.5520121386905</v>
+        <v>-250.5519715666463</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO3" t="n">
-        <v>228.7445765460927</v>
+        <v>228.7445899420705</v>
       </c>
       <c r="NP3" t="n">
-        <v>51101.26922308264</v>
+        <v>51101.2806519552</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7788201285423486</v>
+        <v>0.7788202571055095</v>
       </c>
       <c r="NR3" t="n">
-        <v>289211.7432904052</v>
+        <v>289211.7528559889</v>
       </c>
       <c r="NS3" t="n">
-        <v>354825.4419485595</v>
+        <v>354825.4553576077</v>
       </c>
       <c r="NT3" t="n">
-        <v>3811.113741842131</v>
+        <v>3811.113736309545</v>
       </c>
       <c r="NU3" t="n">
-        <v>-516946.1570981137</v>
+        <v>-516946.1934771114</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8960653380651</v>
+        <v>715.896065532082</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.247335947147</v>
+        <v>1004.247336248976</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402783706421008</v>
+        <v>1.402783706462446</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992806636137362</v>
+        <v>0.9992806636278531</v>
       </c>
       <c r="NZ3" t="n">
-        <v>303.2749722953902</v>
+        <v>303.274981184576</v>
       </c>
       <c r="OA3" t="n">
-        <v>71632.53336656549</v>
+        <v>71632.54939044596</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.396013728682044e-05</v>
+        <v>1.396013416400025e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>51064.56044412232</v>
+        <v>51064.57186552989</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.958305312535208e-05</v>
+        <v>1.958304874528929e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004384744746993826</v>
+        <v>0.004384744490966612</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.49076800665616e-05</v>
+        <v>1.490768078823678e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02084864726945641</v>
+        <v>0.02084864835806063</v>
       </c>
       <c r="OH3" t="n">
-        <v>51101.26922308264</v>
+        <v>51101.2806519552</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7788201285423486</v>
+        <v>0.7788202571055095</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7788201285423486</v>
+        <v>0.7788202571055095</v>
       </c>
       <c r="OK3" t="n">
-        <v>289211.7432904052</v>
+        <v>289211.7528559889</v>
       </c>
       <c r="OL3" t="n">
-        <v>354825.4419485595</v>
+        <v>354825.4553576077</v>
       </c>
       <c r="OM3" t="n">
-        <v>3811.113741842131</v>
+        <v>3811.113736309545</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8960653380651</v>
+        <v>715.896065532082</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.247335947147</v>
+        <v>1004.247336248976</v>
       </c>
       <c r="OP3" t="n">
-        <v>303.2749722953902</v>
+        <v>303.274981184576</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992806636137362</v>
+        <v>0.9992806636278531</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.49076800665616e-05</v>
+        <v>1.490768078823678e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02084864726945641</v>
+        <v>0.02084864835806063</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>241.8817776603897</v>
+        <v>241.8817845213923</v>
       </c>
       <c r="OW3" t="n">
-        <v>62100.24747695238</v>
+        <v>62100.25482059944</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8950189850138924</v>
+        <v>0.8950190654607683</v>
       </c>
       <c r="OY3" t="n">
-        <v>298596.0317661413</v>
+        <v>298596.0366643677</v>
       </c>
       <c r="OZ3" t="n">
-        <v>367980.3113364663</v>
+        <v>367980.3182032524</v>
       </c>
       <c r="PA3" t="n">
-        <v>3811.113741834482</v>
+        <v>3811.113736301897</v>
       </c>
       <c r="PB3" t="n">
-        <v>-553858.6554043978</v>
+        <v>-553858.6733474412</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.1121939521016</v>
+        <v>716.1121940872283</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.545337404378</v>
+        <v>1004.545337609295</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402776472581011</v>
+        <v>1.402776472602467</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9993133781953494</v>
+        <v>0.9993133782020791</v>
       </c>
       <c r="PG3" t="n">
-        <v>311.8716824169921</v>
+        <v>311.8716868446645</v>
       </c>
       <c r="PH3" t="n">
-        <v>87053.07849014827</v>
+        <v>87053.08878653099</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.148724453338166e-05</v>
+        <v>1.148724317470424e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62057.6978525856</v>
+        <v>62057.70519163891</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.611403636621263e-05</v>
+        <v>1.611403446053836e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004147050263822229</v>
+        <v>0.004147050146663825</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.560778213690545e-05</v>
+        <v>1.560778249889538e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02190692579259508</v>
+        <v>0.02190692634119941</v>
       </c>
       <c r="PO3" t="n">
-        <v>62100.24747695238</v>
+        <v>62100.25482059944</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8950189850138924</v>
+        <v>0.8950190654607683</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8950189850138924</v>
+        <v>0.8950190654607683</v>
       </c>
       <c r="PR3" t="n">
-        <v>298596.0317661413</v>
+        <v>298596.0366643677</v>
       </c>
       <c r="PS3" t="n">
-        <v>367980.3113364663</v>
+        <v>367980.3182032524</v>
       </c>
       <c r="PT3" t="n">
-        <v>3811.113741834482</v>
+        <v>3811.113736301897</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.1121939521016</v>
+        <v>716.1121940872283</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.545337404378</v>
+        <v>1004.545337609295</v>
       </c>
       <c r="PW3" t="n">
-        <v>311.8716824169921</v>
+        <v>311.8716868446645</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9993133781953494</v>
+        <v>0.9993133782020791</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.560778213690545e-05</v>
+        <v>1.560778249889538e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02190692579259508</v>
+        <v>0.02190692634119941</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>269.5878845907284</v>
+        <v>269.5878847553794</v>
       </c>
       <c r="QD3" t="n">
-        <v>90689.62638108587</v>
+        <v>90689.62831778653</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.172609820395461</v>
+        <v>1.172609844732811</v>
       </c>
       <c r="QF3" t="n">
-        <v>318394.8013511997</v>
+        <v>318394.8014648622</v>
       </c>
       <c r="QG3" t="n">
-        <v>395734.7867442105</v>
+        <v>395734.7869043081</v>
       </c>
       <c r="QH3" t="n">
-        <v>3811.113741831458</v>
+        <v>3811.113736298872</v>
       </c>
       <c r="QI3" t="n">
-        <v>-631695.3048507877</v>
+        <v>-631695.3038266759</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.808018166024</v>
+        <v>716.808018176833</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.418031181473</v>
+        <v>1005.418031223393</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402632233040398</v>
+        <v>1.40263223307773</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9994187311426744</v>
+        <v>0.9994187311323328</v>
       </c>
       <c r="QN3" t="n">
-        <v>329.2670653278595</v>
+        <v>329.2670654294031</v>
       </c>
       <c r="QO3" t="n">
-        <v>127130.6047389151</v>
+        <v>127130.6074559051</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.865926556816706e-06</v>
+        <v>7.865926388708928e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>90637.16186198147</v>
+        <v>90637.16379663428</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.103300213131959e-05</v>
+        <v>1.103300189581985e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003721595143273115</v>
+        <v>0.003721595141239034</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.703788279334494e-05</v>
+        <v>1.7037882801931e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02408354119706877</v>
+        <v>0.02408354121040823</v>
       </c>
       <c r="QV3" t="n">
-        <v>90689.62638108587</v>
+        <v>90689.62831778653</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.172609820395461</v>
+        <v>1.172609844732811</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.172609820395461</v>
+        <v>1.172609844732811</v>
       </c>
       <c r="QY3" t="n">
-        <v>318394.8013511997</v>
+        <v>318394.8014648622</v>
       </c>
       <c r="QZ3" t="n">
-        <v>395734.7867442105</v>
+        <v>395734.7869043081</v>
       </c>
       <c r="RA3" t="n">
-        <v>3811.113741831458</v>
+        <v>3811.113736298872</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.808018166024</v>
+        <v>716.808018176833</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.418031181473</v>
+        <v>1005.418031223393</v>
       </c>
       <c r="RD3" t="n">
-        <v>329.2670653278595</v>
+        <v>329.2670654294031</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9994187311426744</v>
+        <v>0.9994187311323328</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.703788279334494e-05</v>
+        <v>1.7037882801931e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02408354119706877</v>
+        <v>0.02408354121040823</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02716239626583605</v>
+        <v>0.0271623964290048</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.0008657270097765814</v>
+        <v>0.0008657268261889391</v>
       </c>
       <c r="RL3" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.08233925600752617</v>
+        <v>0.08233925464799451</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04176601975072048</v>
+        <v>0.04176601953435415</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1660322412624359</v>
+        <v>0.166032239666119</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.410575822772709e-05</v>
+        <v>2.410577417383264e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5348373106017748</v>
+        <v>0.5348371619310183</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9431693693766122</v>
+        <v>0.9431691890037059</v>
       </c>
       <c r="RS3" t="n">
-        <v>389428.5384052992</v>
+        <v>389428.5207774236</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.706564313367566</v>
+        <v>2.706564321875956</v>
       </c>
       <c r="RU3" t="n">
-        <v>382072.2127790904</v>
+        <v>382072.2129391881</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>4015.781426087313</v>
+        <v>4015.781389728014</v>
       </c>
       <c r="RX3" t="n">
-        <v>4.598005259273265</v>
+        <v>4.598003942370411</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009661558644879343</v>
+        <v>0.009661558458268693</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0002629834305804327</v>
+        <v>0.0002629833402669922</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.02910514078523949</v>
+        <v>0.02910514037318155</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01479807132448583</v>
+        <v>0.01479807139275307</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004956618142038202</v>
+        <v>0.004956618241009624</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4281822287635209</v>
+        <v>0.4281822772799623</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4488754793958883</v>
+        <v>0.4488755038817946</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>5.540809586733906e-08</v>
+        <v>1.557750611303223e-07</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>1.353419089212076e-07</v>
+        <v>1.042387288770073e-07</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
